--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443189.4295253321</v>
+        <v>438779.0526915881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7894021.52438763</v>
+        <v>7894021.524387633</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5509302.546718891</v>
+        <v>5509302.546718889</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.78071946234463</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>201.7428666901955</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>103.4021415527986</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
         <v>102.8015588998678</v>
@@ -794,7 +794,7 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>169.9918112246883</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -819,19 +819,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>157.5205651197726</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>77.97716624298334</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>215.5897290130557</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>338.2895501307631</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>39.91362941044287</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>181.6274605002434</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>91.25655756215743</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>42.83089116394195</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1104,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>84.20815566500212</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>199.1119521553648</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>39.91362941044287</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U9" t="n">
-        <v>169.9918112246883</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>102.7007902560859</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1353,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4692973154447</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>237.7946550833207</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T11" t="n">
-        <v>195.8111398593826</v>
+        <v>211.0805672620119</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.76524950687595</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.8119594203559</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.7978914799193</v>
+        <v>56.86148685691968</v>
       </c>
       <c r="T13" t="n">
         <v>237.562799055209</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>118.7174778750737</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.0257075244622</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T14" t="n">
-        <v>211.0805672620119</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>274.3161982787325</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8119594203559</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.05492709124856</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>126.5991487047919</v>
+        <v>237.562799055209</v>
       </c>
       <c r="U16" t="n">
         <v>277.3399254371521</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>193.2434074015609</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>93.39052364003697</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8119594203559</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4016976668321</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.38685308878859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.7978914799193</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.562799055209</v>
+        <v>235.1726451656709</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5655205496603</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T20" t="n">
-        <v>98.61358298391578</v>
+        <v>201.1239425922114</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.05989851809059</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>83.00737237572635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.562799055209</v>
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>103.6285225195421</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>277.0257075244622</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>286.2670185682229</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>163.4610379557998</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.38685308878859</v>
+        <v>4.595053554715564</v>
       </c>
       <c r="S25" t="n">
         <v>154.7978914799193</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>29.81552773848323</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>116.3893802461074</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>150.4390043579281</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8119594203559</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.4016976668321</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>126.5991487047921</v>
+        <v>237.562799055209</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3399254371521</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>116.0569152682287</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>186.9812013117109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.38685308878859</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>26.48807703151274</v>
+        <v>154.7978914799193</v>
       </c>
       <c r="T31" t="n">
         <v>237.562799055209</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3399254371521</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>108.1541885927318</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.7946550833208</v>
+        <v>29.81552773848323</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3082,7 +3082,7 @@
         <v>63.57499590155389</v>
       </c>
       <c r="T32" t="n">
-        <v>211.0805672620119</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8119594203559</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.01374822214409</v>
       </c>
       <c r="I34" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.38685308878859</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>154.7978914799193</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.562799055209</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>221.6166807620794</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>29.81552773848323</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.5513547141897</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T35" t="n">
-        <v>211.0805672620119</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>68.90365178053483</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.3905236400372</v>
+        <v>29.81552773848323</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.7978914799193</v>
       </c>
       <c r="T40" t="n">
         <v>237.562799055209</v>
       </c>
       <c r="U40" t="n">
-        <v>166.3762750867354</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>236.1283922872296</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>235.4245107224245</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>277.0257075244622</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>193.2434074015614</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6.332724555846662</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.7978914799193</v>
       </c>
       <c r="T43" t="n">
-        <v>126.7088297114801</v>
+        <v>237.562799055209</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3399254371521</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.57499590155389</v>
       </c>
       <c r="T44" t="n">
-        <v>211.0805672620119</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>114.4550380029233</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>35.03858708236204</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8119594203559</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.4016976668321</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.38685308878859</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.11000398922549</v>
       </c>
       <c r="T46" t="n">
-        <v>115.2122956160034</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3399254371521</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>526.1173949322974</v>
+        <v>1444.767186367897</v>
       </c>
       <c r="C2" t="n">
-        <v>503.2570689860016</v>
+        <v>1017.866456381197</v>
       </c>
       <c r="D2" t="n">
-        <v>484.004852211406</v>
+        <v>594.5738355661974</v>
       </c>
       <c r="E2" t="n">
-        <v>462.0683163996676</v>
+        <v>390.7931621417575</v>
       </c>
       <c r="F2" t="n">
-        <v>36.9441345890678</v>
+        <v>369.7093843715618</v>
       </c>
       <c r="G2" t="n">
-        <v>36.64547621892049</v>
+        <v>369.4107260014144</v>
       </c>
       <c r="H2" t="n">
-        <v>36.64547621892049</v>
+        <v>71.54234747544928</v>
       </c>
       <c r="I2" t="n">
         <v>36.64547621892049</v>
       </c>
       <c r="J2" t="n">
-        <v>354.2541714366987</v>
+        <v>399.248935035816</v>
       </c>
       <c r="K2" t="n">
-        <v>354.2541714366987</v>
+        <v>807.7419396458398</v>
       </c>
       <c r="L2" t="n">
-        <v>354.2541714366987</v>
+        <v>807.7419396458398</v>
       </c>
       <c r="M2" t="n">
         <v>807.7419396458398</v>
       </c>
       <c r="N2" t="n">
-        <v>1261.229707854981</v>
+        <v>807.7419396458398</v>
       </c>
       <c r="O2" t="n">
-        <v>1261.229707854981</v>
+        <v>807.7419396458398</v>
       </c>
       <c r="P2" t="n">
         <v>1261.229707854981</v>
@@ -4357,25 +4357,25 @@
         <v>1832.273810946025</v>
       </c>
       <c r="S2" t="n">
-        <v>1832.273810946025</v>
+        <v>1727.906516819165</v>
       </c>
       <c r="T2" t="n">
-        <v>1832.273810946025</v>
+        <v>1727.906516819165</v>
       </c>
       <c r="U2" t="n">
-        <v>1832.273810946025</v>
+        <v>1469.551607415577</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.273810946025</v>
+        <v>1469.551607415577</v>
       </c>
       <c r="W2" t="n">
-        <v>1435.882461246372</v>
+        <v>1469.551607415577</v>
       </c>
       <c r="X2" t="n">
-        <v>1024.162462414119</v>
+        <v>1461.872012623729</v>
       </c>
       <c r="Y2" t="n">
-        <v>618.8251923690092</v>
+        <v>1460.575146619023</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.70967139697</v>
+        <v>603.7689672503757</v>
       </c>
       <c r="C3" t="n">
         <v>486.2630637678805</v>
@@ -4406,31 +4406,31 @@
         <v>36.64547621892049</v>
       </c>
       <c r="I3" t="n">
-        <v>44.09211918083233</v>
+        <v>36.64547621892049</v>
       </c>
       <c r="J3" t="n">
-        <v>44.09211918083233</v>
+        <v>36.64547621892049</v>
       </c>
       <c r="K3" t="n">
-        <v>44.09211918083233</v>
+        <v>36.64547621892049</v>
       </c>
       <c r="L3" t="n">
-        <v>44.09211918083233</v>
+        <v>490.1332444280616</v>
       </c>
       <c r="M3" t="n">
-        <v>44.09211918083233</v>
+        <v>943.6210126372027</v>
       </c>
       <c r="N3" t="n">
-        <v>497.5798873899735</v>
+        <v>1397.108780846344</v>
       </c>
       <c r="O3" t="n">
-        <v>951.0676555991146</v>
+        <v>1832.273810946025</v>
       </c>
       <c r="P3" t="n">
-        <v>1296.766732652181</v>
+        <v>1832.273810946025</v>
       </c>
       <c r="Q3" t="n">
-        <v>1750.254500861322</v>
+        <v>1832.273810946025</v>
       </c>
       <c r="R3" t="n">
         <v>1832.273810946025</v>
@@ -4442,19 +4442,19 @@
         <v>1609.069627804957</v>
       </c>
       <c r="U3" t="n">
-        <v>1424.301431724594</v>
+        <v>1437.360727578</v>
       </c>
       <c r="V3" t="n">
-        <v>1219.32829286386</v>
+        <v>1232.387588717266</v>
       </c>
       <c r="W3" t="n">
-        <v>1022.806915697077</v>
+        <v>1035.866211550483</v>
       </c>
       <c r="X3" t="n">
-        <v>859.3295694637403</v>
+        <v>872.388865317146</v>
       </c>
       <c r="Y3" t="n">
-        <v>719.6366808170327</v>
+        <v>732.6959766704384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1119.826598743157</v>
+        <v>602.6387677828836</v>
       </c>
       <c r="C4" t="n">
-        <v>947.8540356220733</v>
+        <v>443.5270858437194</v>
       </c>
       <c r="D4" t="n">
-        <v>784.537262748844</v>
+        <v>280.2103129704901</v>
       </c>
       <c r="E4" t="n">
-        <v>618.3290569016975</v>
+        <v>280.2103129704901</v>
       </c>
       <c r="F4" t="n">
-        <v>446.467282676258</v>
+        <v>280.2103129704901</v>
       </c>
       <c r="G4" t="n">
         <v>280.2103129704901</v>
@@ -4488,25 +4488,25 @@
         <v>36.64547621892049</v>
       </c>
       <c r="J4" t="n">
-        <v>94.13680444307852</v>
+        <v>36.64547621892049</v>
       </c>
       <c r="K4" t="n">
-        <v>320.6644056489157</v>
+        <v>263.1730774247577</v>
       </c>
       <c r="L4" t="n">
-        <v>675.3537269433365</v>
+        <v>617.8623987191785</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.539521913587</v>
+        <v>1009.048193689429</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.031032789623</v>
+        <v>1186.246470344361</v>
       </c>
       <c r="O4" t="n">
-        <v>1705.273680705263</v>
+        <v>1541.674599024124</v>
       </c>
       <c r="P4" t="n">
-        <v>1705.273680705263</v>
+        <v>1832.273810946025</v>
       </c>
       <c r="Q4" t="n">
         <v>1832.273810946025</v>
@@ -4515,25 +4515,25 @@
         <v>1785.235197633198</v>
       </c>
       <c r="S4" t="n">
-        <v>1615.100150152333</v>
+        <v>1785.235197633198</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.100150152333</v>
+        <v>1541.895849859098</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.100150152333</v>
+        <v>1261.711401359402</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.100150152333</v>
+        <v>1261.711401359402</v>
       </c>
       <c r="W4" t="n">
-        <v>1615.100150152333</v>
+        <v>1261.711401359402</v>
       </c>
       <c r="X4" t="n">
-        <v>1536.335335765481</v>
+        <v>1019.147504805207</v>
       </c>
       <c r="Y4" t="n">
-        <v>1309.992567455223</v>
+        <v>792.8047364949492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.4426068217655</v>
+        <v>1369.095074269635</v>
       </c>
       <c r="C5" t="n">
-        <v>351.5822808754697</v>
+        <v>1346.234748323339</v>
       </c>
       <c r="D5" t="n">
-        <v>332.330064100874</v>
+        <v>922.9421275083389</v>
       </c>
       <c r="E5" t="n">
-        <v>310.3935282891356</v>
+        <v>496.9651876561964</v>
       </c>
       <c r="F5" t="n">
-        <v>289.3097505189399</v>
+        <v>71.84100584559661</v>
       </c>
       <c r="G5" t="n">
-        <v>71.54234747544928</v>
+        <v>71.5423474754493</v>
       </c>
       <c r="H5" t="n">
-        <v>71.54234747544928</v>
+        <v>71.5423474754493</v>
       </c>
       <c r="I5" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="J5" t="n">
-        <v>36.64547621892049</v>
+        <v>399.248935035816</v>
       </c>
       <c r="K5" t="n">
-        <v>36.64547621892049</v>
+        <v>399.248935035816</v>
       </c>
       <c r="L5" t="n">
-        <v>471.8105063186015</v>
+        <v>399.248935035816</v>
       </c>
       <c r="M5" t="n">
-        <v>925.2982745277426</v>
+        <v>399.248935035816</v>
       </c>
       <c r="N5" t="n">
-        <v>925.2982745277426</v>
+        <v>399.248935035816</v>
       </c>
       <c r="O5" t="n">
-        <v>1378.786042736884</v>
+        <v>852.7367032449574</v>
       </c>
       <c r="P5" t="n">
-        <v>1378.786042736884</v>
+        <v>1261.229707854982</v>
       </c>
       <c r="Q5" t="n">
-        <v>1832.273810946025</v>
+        <v>1714.717476064123</v>
       </c>
       <c r="R5" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S5" t="n">
-        <v>1832.273810946025</v>
+        <v>1727.906516819166</v>
       </c>
       <c r="T5" t="n">
-        <v>1611.348239990658</v>
+        <v>1727.906516819166</v>
       </c>
       <c r="U5" t="n">
-        <v>1611.348239990658</v>
+        <v>1727.906516819166</v>
       </c>
       <c r="V5" t="n">
-        <v>1611.348239990658</v>
+        <v>1727.906516819166</v>
       </c>
       <c r="W5" t="n">
-        <v>1611.348239990658</v>
+        <v>1727.906516819166</v>
       </c>
       <c r="X5" t="n">
-        <v>1199.628241158405</v>
+        <v>1386.199900525466</v>
       </c>
       <c r="Y5" t="n">
-        <v>794.2909711132955</v>
+        <v>1384.90303452076</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603.7689672503757</v>
+        <v>590.7096713969711</v>
       </c>
       <c r="C6" t="n">
-        <v>486.2630637678805</v>
+        <v>473.2037679144759</v>
       </c>
       <c r="D6" t="n">
-        <v>382.4231052831655</v>
+        <v>369.3638094297609</v>
       </c>
       <c r="E6" t="n">
-        <v>277.7211715561027</v>
+        <v>264.6618757026981</v>
       </c>
       <c r="F6" t="n">
-        <v>184.0753412390069</v>
+        <v>171.0160453856022</v>
       </c>
       <c r="G6" t="n">
-        <v>90.02156945661091</v>
+        <v>76.96227360320624</v>
       </c>
       <c r="H6" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="I6" t="n">
-        <v>44.09211918083233</v>
+        <v>44.09211918083236</v>
       </c>
       <c r="J6" t="n">
         <v>315.7896084604234</v>
       </c>
       <c r="K6" t="n">
-        <v>315.7896084604234</v>
+        <v>389.7911962338983</v>
       </c>
       <c r="L6" t="n">
-        <v>315.7896084604234</v>
+        <v>843.2789644430397</v>
       </c>
       <c r="M6" t="n">
-        <v>769.2773766695645</v>
+        <v>1296.766732652181</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.765144878706</v>
+        <v>1750.254500861323</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.252913087847</v>
+        <v>1750.254500861323</v>
       </c>
       <c r="P6" t="n">
-        <v>1750.254500861322</v>
+        <v>1750.254500861323</v>
       </c>
       <c r="Q6" t="n">
-        <v>1750.254500861322</v>
+        <v>1750.254500861323</v>
       </c>
       <c r="R6" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S6" t="n">
-        <v>1750.949563507279</v>
+        <v>1750.94956350728</v>
       </c>
       <c r="T6" t="n">
-        <v>1609.069627804957</v>
+        <v>1609.069627804959</v>
       </c>
       <c r="U6" t="n">
-        <v>1424.301431724594</v>
+        <v>1424.301431724595</v>
       </c>
       <c r="V6" t="n">
-        <v>1219.32829286386</v>
+        <v>1219.328292863861</v>
       </c>
       <c r="W6" t="n">
-        <v>1035.866211550483</v>
+        <v>1022.806915697079</v>
       </c>
       <c r="X6" t="n">
-        <v>872.388865317146</v>
+        <v>859.3295694637414</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.6959766704384</v>
+        <v>719.6366808170338</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1040.032376593949</v>
+        <v>681.1751127483285</v>
       </c>
       <c r="C7" t="n">
-        <v>947.8540356220733</v>
+        <v>509.2025496272445</v>
       </c>
       <c r="D7" t="n">
-        <v>784.537262748844</v>
+        <v>345.8857767540152</v>
       </c>
       <c r="E7" t="n">
-        <v>618.3290569016975</v>
+        <v>179.6775709068687</v>
       </c>
       <c r="F7" t="n">
-        <v>446.467282676258</v>
+        <v>179.6775709068687</v>
       </c>
       <c r="G7" t="n">
-        <v>280.2103129704901</v>
+        <v>179.6775709068687</v>
       </c>
       <c r="H7" t="n">
         <v>136.4140444786445</v>
       </c>
       <c r="I7" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="J7" t="n">
-        <v>94.13680444307852</v>
+        <v>62.87984320365416</v>
       </c>
       <c r="K7" t="n">
-        <v>320.6644056489157</v>
+        <v>62.87984320365416</v>
       </c>
       <c r="L7" t="n">
-        <v>320.6644056489157</v>
+        <v>417.5691644980749</v>
       </c>
       <c r="M7" t="n">
-        <v>711.8502006191666</v>
+        <v>808.7549594683258</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.246340103598</v>
+        <v>1186.246470344362</v>
       </c>
       <c r="O7" t="n">
-        <v>1414.674468783362</v>
+        <v>1541.674599024125</v>
       </c>
       <c r="P7" t="n">
-        <v>1705.273680705263</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="Q7" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="R7" t="n">
-        <v>1785.235197633198</v>
+        <v>1785.235197633199</v>
       </c>
       <c r="S7" t="n">
-        <v>1785.235197633198</v>
+        <v>1615.100150152334</v>
       </c>
       <c r="T7" t="n">
-        <v>1785.235197633198</v>
+        <v>1615.100150152334</v>
       </c>
       <c r="U7" t="n">
-        <v>1505.050749133502</v>
+        <v>1615.100150152334</v>
       </c>
       <c r="V7" t="n">
-        <v>1505.050749133502</v>
+        <v>1615.100150152334</v>
       </c>
       <c r="W7" t="n">
-        <v>1230.198345306015</v>
+        <v>1340.247746324847</v>
       </c>
       <c r="X7" t="n">
-        <v>1230.198345306015</v>
+        <v>1097.683849770652</v>
       </c>
       <c r="Y7" t="n">
-        <v>1230.198345306015</v>
+        <v>871.3410814603942</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>741.0536724139486</v>
+        <v>1334.198203013106</v>
       </c>
       <c r="C8" t="n">
-        <v>718.1933464676528</v>
+        <v>1311.33787706681</v>
       </c>
       <c r="D8" t="n">
-        <v>698.9411296930571</v>
+        <v>888.0452562518101</v>
       </c>
       <c r="E8" t="n">
-        <v>677.0045938813187</v>
+        <v>866.1087204400717</v>
       </c>
       <c r="F8" t="n">
-        <v>475.8814098860007</v>
+        <v>440.9845386294719</v>
       </c>
       <c r="G8" t="n">
-        <v>71.54234747544928</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="H8" t="n">
-        <v>71.54234747544928</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="I8" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="J8" t="n">
-        <v>399.248935035816</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="K8" t="n">
-        <v>852.7367032449571</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="L8" t="n">
-        <v>1261.229707854981</v>
+        <v>490.1332444280619</v>
       </c>
       <c r="M8" t="n">
-        <v>1261.229707854981</v>
+        <v>943.6210126372033</v>
       </c>
       <c r="N8" t="n">
-        <v>1261.229707854981</v>
+        <v>1397.108780846345</v>
       </c>
       <c r="O8" t="n">
-        <v>1261.229707854981</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="P8" t="n">
-        <v>1261.229707854981</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="Q8" t="n">
-        <v>1714.717476064122</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="R8" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S8" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="T8" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="U8" t="n">
-        <v>1573.918901542437</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="V8" t="n">
-        <v>1573.918901542437</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.918901542437</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="X8" t="n">
-        <v>1566.239306750588</v>
+        <v>1420.553812113773</v>
       </c>
       <c r="Y8" t="n">
-        <v>1160.902036705479</v>
+        <v>1419.256946109067</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>603.7689672503757</v>
+        <v>590.7096713969711</v>
       </c>
       <c r="C9" t="n">
-        <v>486.2630637678805</v>
+        <v>473.2037679144759</v>
       </c>
       <c r="D9" t="n">
-        <v>382.4231052831655</v>
+        <v>369.3638094297609</v>
       </c>
       <c r="E9" t="n">
-        <v>277.7211715561027</v>
+        <v>264.6618757026981</v>
       </c>
       <c r="F9" t="n">
-        <v>184.0753412390069</v>
+        <v>171.0160453856022</v>
       </c>
       <c r="G9" t="n">
-        <v>90.02156945661091</v>
+        <v>76.96227360320624</v>
       </c>
       <c r="H9" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="I9" t="n">
-        <v>36.64547621892049</v>
+        <v>44.09211918083236</v>
       </c>
       <c r="J9" t="n">
-        <v>308.3429654985116</v>
+        <v>44.09211918083236</v>
       </c>
       <c r="K9" t="n">
-        <v>308.3429654985116</v>
+        <v>44.09211918083236</v>
       </c>
       <c r="L9" t="n">
-        <v>761.8307337076527</v>
+        <v>44.09211918083236</v>
       </c>
       <c r="M9" t="n">
-        <v>1215.318501916794</v>
+        <v>497.5798873899737</v>
       </c>
       <c r="N9" t="n">
-        <v>1378.786042736884</v>
+        <v>497.5798873899737</v>
       </c>
       <c r="O9" t="n">
-        <v>1832.273810946025</v>
+        <v>951.0676555991151</v>
       </c>
       <c r="P9" t="n">
-        <v>1832.273810946025</v>
+        <v>1296.766732652181</v>
       </c>
       <c r="Q9" t="n">
-        <v>1832.273810946025</v>
+        <v>1750.254500861323</v>
       </c>
       <c r="R9" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S9" t="n">
-        <v>1750.949563507279</v>
+        <v>1750.94956350728</v>
       </c>
       <c r="T9" t="n">
-        <v>1609.069627804957</v>
+        <v>1609.069627804959</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.360727578</v>
+        <v>1424.301431724595</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.387588717266</v>
+        <v>1219.328292863861</v>
       </c>
       <c r="W9" t="n">
-        <v>1035.866211550483</v>
+        <v>1022.806915697079</v>
       </c>
       <c r="X9" t="n">
-        <v>872.388865317146</v>
+        <v>859.3295694637414</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.6959766704384</v>
+        <v>719.6366808170338</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.2758187040841</v>
+        <v>876.2617619915877</v>
       </c>
       <c r="C10" t="n">
-        <v>308.2758187040841</v>
+        <v>704.2891988705037</v>
       </c>
       <c r="D10" t="n">
-        <v>308.2758187040841</v>
+        <v>540.9724259972744</v>
       </c>
       <c r="E10" t="n">
-        <v>308.2758187040841</v>
+        <v>374.7642201501279</v>
       </c>
       <c r="F10" t="n">
-        <v>136.4140444786445</v>
+        <v>202.9024459246884</v>
       </c>
       <c r="G10" t="n">
-        <v>136.4140444786445</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="H10" t="n">
-        <v>136.4140444786445</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="I10" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="J10" t="n">
-        <v>36.64547621892049</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="K10" t="n">
-        <v>36.64547621892049</v>
+        <v>263.1730774247577</v>
       </c>
       <c r="L10" t="n">
-        <v>290.5690342573118</v>
+        <v>617.8623987191785</v>
       </c>
       <c r="M10" t="n">
-        <v>681.7548292275626</v>
+        <v>681.754829227564</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.246340103598</v>
+        <v>1059.2463401036</v>
       </c>
       <c r="O10" t="n">
-        <v>1414.674468783362</v>
+        <v>1414.674468783363</v>
       </c>
       <c r="P10" t="n">
-        <v>1705.273680705263</v>
+        <v>1705.273680705264</v>
       </c>
       <c r="Q10" t="n">
-        <v>1832.273810946025</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="R10" t="n">
-        <v>1785.235197633198</v>
+        <v>1785.235197633199</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.100150152333</v>
+        <v>1681.497025657355</v>
       </c>
       <c r="T10" t="n">
-        <v>1371.760802378233</v>
+        <v>1438.157677883255</v>
       </c>
       <c r="U10" t="n">
-        <v>1091.576353878537</v>
+        <v>1157.973229383559</v>
       </c>
       <c r="V10" t="n">
-        <v>809.8648864865659</v>
+        <v>876.2617619915877</v>
       </c>
       <c r="W10" t="n">
-        <v>535.0124826590788</v>
+        <v>876.2617619915877</v>
       </c>
       <c r="X10" t="n">
-        <v>308.2758187040841</v>
+        <v>876.2617619915877</v>
       </c>
       <c r="Y10" t="n">
-        <v>308.2758187040841</v>
+        <v>876.2617619915877</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>459.9380970339203</v>
+        <v>1554.843949164646</v>
       </c>
       <c r="C11" t="n">
-        <v>459.9380970339203</v>
+        <v>1127.943219177946</v>
       </c>
       <c r="D11" t="n">
-        <v>36.64547621892051</v>
+        <v>1127.943219177946</v>
       </c>
       <c r="E11" t="n">
-        <v>36.64547621892051</v>
+        <v>701.9662793258038</v>
       </c>
       <c r="F11" t="n">
-        <v>36.64547621892051</v>
+        <v>276.842097515204</v>
       </c>
       <c r="G11" t="n">
         <v>36.64547621892051</v>
@@ -5038,16 +5038,16 @@
         <v>36.64547621892051</v>
       </c>
       <c r="I11" t="n">
-        <v>69.01835878927047</v>
+        <v>69.01835878927045</v>
       </c>
       <c r="J11" t="n">
-        <v>186.4588626988265</v>
+        <v>186.4588626988266</v>
       </c>
       <c r="K11" t="n">
         <v>370.7167439641689</v>
       </c>
       <c r="L11" t="n">
-        <v>605.3014751721347</v>
+        <v>605.3014751721346</v>
       </c>
       <c r="M11" t="n">
         <v>871.4684718643575</v>
@@ -5068,25 +5068,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S11" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T11" t="n">
-        <v>1634.484780785033</v>
+        <v>1554.843949164646</v>
       </c>
       <c r="U11" t="n">
-        <v>1634.484780785033</v>
+        <v>1554.843949164646</v>
       </c>
       <c r="V11" t="n">
-        <v>1276.995365911283</v>
+        <v>1554.843949164646</v>
       </c>
       <c r="W11" t="n">
-        <v>1276.995365911283</v>
+        <v>1554.843949164646</v>
       </c>
       <c r="X11" t="n">
-        <v>865.2753670790299</v>
+        <v>1554.843949164646</v>
       </c>
       <c r="Y11" t="n">
-        <v>459.9380970339203</v>
+        <v>1554.843949164646</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>52.44655938925897</v>
       </c>
       <c r="J12" t="n">
-        <v>119.3354188392836</v>
+        <v>411.4379113088746</v>
       </c>
       <c r="K12" t="n">
-        <v>572.823187048425</v>
+        <v>538.4617850275501</v>
       </c>
       <c r="L12" t="n">
-        <v>751.1498739205438</v>
+        <v>716.7884718996689</v>
       </c>
       <c r="M12" t="n">
-        <v>962.3941974518712</v>
+        <v>928.0327954309964</v>
       </c>
       <c r="N12" t="n">
-        <v>1181.570934448779</v>
+        <v>1147.209532427904</v>
       </c>
       <c r="O12" t="n">
-        <v>1378.464112429936</v>
+        <v>1344.102710409061</v>
       </c>
       <c r="P12" t="n">
-        <v>1533.346622904477</v>
+        <v>1684.55996782453</v>
       </c>
       <c r="Q12" t="n">
         <v>1779.982954965805</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>599.2446710676986</v>
+        <v>540.2928708642783</v>
       </c>
       <c r="C13" t="n">
-        <v>427.2721079466146</v>
+        <v>368.3203077431942</v>
       </c>
       <c r="D13" t="n">
-        <v>427.2721079466146</v>
+        <v>368.3203077431942</v>
       </c>
       <c r="E13" t="n">
-        <v>373.9738761214874</v>
+        <v>202.1121018960478</v>
       </c>
       <c r="F13" t="n">
         <v>202.1121018960478</v>
@@ -5199,22 +5199,22 @@
         <v>36.64547621892051</v>
       </c>
       <c r="J13" t="n">
-        <v>70.98045189553639</v>
+        <v>148.9021685437573</v>
       </c>
       <c r="K13" t="n">
-        <v>387.5043695738789</v>
+        <v>465.4260862220998</v>
       </c>
       <c r="L13" t="n">
-        <v>840.9921377830203</v>
+        <v>918.9138544312411</v>
       </c>
       <c r="M13" t="n">
-        <v>940.0670598753798</v>
+        <v>1017.988776523601</v>
       </c>
       <c r="N13" t="n">
-        <v>1393.554828084521</v>
+        <v>1115.984766371659</v>
       </c>
       <c r="O13" t="n">
-        <v>1720.254322113407</v>
+        <v>1407.498117540099</v>
       </c>
       <c r="P13" t="n">
         <v>1791.783635749184</v>
@@ -5226,25 +5226,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.912304400653</v>
+        <v>1774.837965636006</v>
       </c>
       <c r="T13" t="n">
-        <v>1435.949881112563</v>
+        <v>1534.875542347916</v>
       </c>
       <c r="U13" t="n">
-        <v>1155.808542287157</v>
+        <v>1254.73420352251</v>
       </c>
       <c r="V13" t="n">
-        <v>874.0970748951856</v>
+        <v>973.0227361305389</v>
       </c>
       <c r="W13" t="n">
-        <v>599.2446710676986</v>
+        <v>973.0227361305389</v>
       </c>
       <c r="X13" t="n">
-        <v>599.2446710676986</v>
+        <v>730.458839576344</v>
       </c>
       <c r="Y13" t="n">
-        <v>599.2446710676986</v>
+        <v>730.458839576344</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>436.3860675315831</v>
+        <v>463.5462062056204</v>
       </c>
       <c r="C14" t="n">
-        <v>436.3860675315831</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="D14" t="n">
-        <v>436.3860675315831</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="E14" t="n">
-        <v>436.3860675315831</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="F14" t="n">
-        <v>436.3860675315831</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="G14" t="n">
-        <v>316.4694232133268</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="H14" t="n">
         <v>36.64547621892051</v>
       </c>
       <c r="I14" t="n">
-        <v>69.01835878927045</v>
+        <v>69.01835878927056</v>
       </c>
       <c r="J14" t="n">
         <v>186.4588626988266</v>
       </c>
       <c r="K14" t="n">
-        <v>370.7167439641693</v>
+        <v>370.716743964169</v>
       </c>
       <c r="L14" t="n">
-        <v>605.3014751721349</v>
+        <v>605.3014751721346</v>
       </c>
       <c r="M14" t="n">
-        <v>871.4684718643578</v>
+        <v>871.4684718643571</v>
       </c>
       <c r="N14" t="n">
-        <v>1142.692072693649</v>
+        <v>1142.692072693648</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.633848008203</v>
+        <v>1396.633848008202</v>
       </c>
       <c r="P14" t="n">
         <v>1607.760865448981</v>
@@ -5305,25 +5305,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S14" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368698</v>
       </c>
       <c r="T14" t="n">
-        <v>1619.061116741973</v>
+        <v>1768.056643368698</v>
       </c>
       <c r="U14" t="n">
-        <v>1619.061116741973</v>
+        <v>1509.84268888004</v>
       </c>
       <c r="V14" t="n">
-        <v>1261.571701868223</v>
+        <v>1152.35327400629</v>
       </c>
       <c r="W14" t="n">
-        <v>1261.571701868223</v>
+        <v>875.2662050378732</v>
       </c>
       <c r="X14" t="n">
-        <v>1261.571701868223</v>
+        <v>463.5462062056204</v>
       </c>
       <c r="Y14" t="n">
-        <v>856.2344318231131</v>
+        <v>463.5462062056204</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>75.90386523367081</v>
       </c>
       <c r="J15" t="n">
-        <v>142.7927246836954</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K15" t="n">
-        <v>269.816598402371</v>
+        <v>618.5810316835715</v>
       </c>
       <c r="L15" t="n">
-        <v>448.1432852744898</v>
+        <v>796.9077185556903</v>
       </c>
       <c r="M15" t="n">
-        <v>901.6310534836311</v>
+        <v>1008.152042087018</v>
       </c>
       <c r="N15" t="n">
-        <v>1120.807790480539</v>
+        <v>1227.328779083926</v>
       </c>
       <c r="O15" t="n">
-        <v>1317.700968461696</v>
+        <v>1424.221957065082</v>
       </c>
       <c r="P15" t="n">
-        <v>1472.583478936237</v>
+        <v>1579.104467539624</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.5274546809</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.6180393400045</v>
+        <v>604.587779738782</v>
       </c>
       <c r="C16" t="n">
-        <v>36.64547621892051</v>
+        <v>432.615216617698</v>
       </c>
       <c r="D16" t="n">
-        <v>36.64547621892051</v>
+        <v>432.615216617698</v>
       </c>
       <c r="E16" t="n">
-        <v>36.64547621892051</v>
+        <v>432.615216617698</v>
       </c>
       <c r="F16" t="n">
-        <v>36.64547621892051</v>
+        <v>260.7534423922584</v>
       </c>
       <c r="G16" t="n">
-        <v>36.64547621892051</v>
+        <v>95.28681671513118</v>
       </c>
       <c r="H16" t="n">
         <v>36.64547621892051</v>
@@ -5436,19 +5436,19 @@
         <v>36.64547621892051</v>
       </c>
       <c r="J16" t="n">
-        <v>70.98045189553639</v>
+        <v>148.9021685437573</v>
       </c>
       <c r="K16" t="n">
-        <v>140.2217604598569</v>
+        <v>465.4260862220998</v>
       </c>
       <c r="L16" t="n">
-        <v>359.7910174859826</v>
+        <v>918.9138544312411</v>
       </c>
       <c r="M16" t="n">
-        <v>813.278785695124</v>
+        <v>1017.988776523601</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.766553904265</v>
+        <v>1471.476544732742</v>
       </c>
       <c r="O16" t="n">
         <v>1720.254322113407</v>
@@ -5466,22 +5466,22 @@
         <v>1832.273810946026</v>
       </c>
       <c r="T16" t="n">
-        <v>1704.395882961388</v>
+        <v>1592.311387657936</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.254544135981</v>
+        <v>1312.17004883253</v>
       </c>
       <c r="V16" t="n">
-        <v>1142.54307674401</v>
+        <v>1312.17004883253</v>
       </c>
       <c r="W16" t="n">
-        <v>867.690672916523</v>
+        <v>1037.317645005043</v>
       </c>
       <c r="X16" t="n">
-        <v>625.1267763623281</v>
+        <v>794.7537484508476</v>
       </c>
       <c r="Y16" t="n">
-        <v>398.7840080520701</v>
+        <v>794.7537484508476</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1737.939948683362</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.039218696662</v>
+        <v>887.7465978816628</v>
       </c>
       <c r="D17" t="n">
         <v>887.7465978816628</v>
@@ -5524,10 +5524,10 @@
         <v>605.3014751721346</v>
       </c>
       <c r="M17" t="n">
-        <v>871.4684718643575</v>
+        <v>871.4684718643574</v>
       </c>
       <c r="N17" t="n">
-        <v>1142.692072693649</v>
+        <v>1142.692072693648</v>
       </c>
       <c r="O17" t="n">
         <v>1396.633848008203</v>
@@ -5542,25 +5542,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S17" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368698</v>
       </c>
       <c r="T17" t="n">
-        <v>1832.273810946026</v>
+        <v>1572.861282357021</v>
       </c>
       <c r="U17" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="V17" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="W17" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="X17" t="n">
-        <v>1737.939948683362</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="Y17" t="n">
-        <v>1737.939948683362</v>
+        <v>1314.647327868363</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>36.64547621892051</v>
       </c>
       <c r="I18" t="n">
-        <v>52.44655938925897</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J18" t="n">
-        <v>119.3354188392836</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K18" t="n">
-        <v>246.3592925579592</v>
+        <v>618.5810316835715</v>
       </c>
       <c r="L18" t="n">
-        <v>645.7686286126107</v>
+        <v>796.9077185556903</v>
       </c>
       <c r="M18" t="n">
-        <v>857.0129521439382</v>
+        <v>1008.152042087018</v>
       </c>
       <c r="N18" t="n">
-        <v>1076.189689140846</v>
+        <v>1227.328779083926</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.677457349988</v>
+        <v>1424.221957065082</v>
       </c>
       <c r="P18" t="n">
-        <v>1684.55996782453</v>
+        <v>1579.104467539624</v>
       </c>
       <c r="Q18" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R18" t="n">
         <v>1813.9132714056</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.5072504443601</v>
+        <v>1088.241577380391</v>
       </c>
       <c r="C19" t="n">
-        <v>208.5072504443601</v>
+        <v>916.269014259307</v>
       </c>
       <c r="D19" t="n">
-        <v>208.5072504443601</v>
+        <v>752.9522413860777</v>
       </c>
       <c r="E19" t="n">
-        <v>208.5072504443601</v>
+        <v>586.7440355389313</v>
       </c>
       <c r="F19" t="n">
-        <v>36.64547621892051</v>
+        <v>414.8822613134917</v>
       </c>
       <c r="G19" t="n">
-        <v>36.64547621892051</v>
+        <v>249.4156356363644</v>
       </c>
       <c r="H19" t="n">
-        <v>36.64547621892051</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="I19" t="n">
         <v>36.64547621892051</v>
@@ -5679,46 +5679,46 @@
         <v>465.4260862220998</v>
       </c>
       <c r="L19" t="n">
-        <v>558.8908143628636</v>
+        <v>918.9138544312411</v>
       </c>
       <c r="M19" t="n">
-        <v>704.6408621049999</v>
+        <v>1372.401622640382</v>
       </c>
       <c r="N19" t="n">
-        <v>802.6368519530588</v>
+        <v>1470.397612488441</v>
       </c>
       <c r="O19" t="n">
-        <v>1256.1246201622</v>
+        <v>1720.254322113407</v>
       </c>
       <c r="P19" t="n">
-        <v>1640.410138371285</v>
+        <v>1791.783635749184</v>
       </c>
       <c r="Q19" t="n">
         <v>1832.273810946026</v>
       </c>
       <c r="R19" t="n">
-        <v>1820.771939139169</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S19" t="n">
-        <v>1664.410432593796</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.448009305706</v>
+        <v>1594.725684516055</v>
       </c>
       <c r="U19" t="n">
-        <v>1233.977786528271</v>
+        <v>1314.584345690649</v>
       </c>
       <c r="V19" t="n">
-        <v>952.2663191362999</v>
+        <v>1314.584345690649</v>
       </c>
       <c r="W19" t="n">
-        <v>677.413915308813</v>
+        <v>1314.584345690649</v>
       </c>
       <c r="X19" t="n">
-        <v>434.8500187546181</v>
+        <v>1314.584345690649</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.5072504443601</v>
+        <v>1088.241577380391</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1312.815766872763</v>
+        <v>886.8388270206201</v>
       </c>
       <c r="C20" t="n">
-        <v>885.9150368860627</v>
+        <v>459.9380970339203</v>
       </c>
       <c r="D20" t="n">
-        <v>462.622416071063</v>
+        <v>36.64547621892051</v>
       </c>
       <c r="E20" t="n">
         <v>36.64547621892051</v>
@@ -5779,25 +5779,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S20" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368698</v>
       </c>
       <c r="T20" t="n">
-        <v>1732.664131164293</v>
+        <v>1564.901145800808</v>
       </c>
       <c r="U20" t="n">
-        <v>1732.664131164293</v>
+        <v>1306.68719131215</v>
       </c>
       <c r="V20" t="n">
-        <v>1732.664131164293</v>
+        <v>1306.68719131215</v>
       </c>
       <c r="W20" t="n">
-        <v>1732.664131164293</v>
+        <v>1306.68719131215</v>
       </c>
       <c r="X20" t="n">
-        <v>1732.664131164293</v>
+        <v>1306.68719131215</v>
       </c>
       <c r="Y20" t="n">
-        <v>1732.664131164293</v>
+        <v>1306.68719131215</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>36.64547621892051</v>
       </c>
       <c r="I21" t="n">
-        <v>52.44655938925897</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J21" t="n">
-        <v>238.9478771819357</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K21" t="n">
-        <v>365.9717509006113</v>
+        <v>561.919090871962</v>
       </c>
       <c r="L21" t="n">
-        <v>544.29843777273</v>
+        <v>740.2457777440808</v>
       </c>
       <c r="M21" t="n">
-        <v>755.5427613040574</v>
+        <v>951.4901012754083</v>
       </c>
       <c r="N21" t="n">
-        <v>974.7194983009655</v>
+        <v>1170.666838272316</v>
       </c>
       <c r="O21" t="n">
-        <v>1171.612676282122</v>
+        <v>1367.560016253473</v>
       </c>
       <c r="P21" t="n">
-        <v>1326.495186756664</v>
+        <v>1522.442526728015</v>
       </c>
       <c r="Q21" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R21" t="n">
         <v>1813.9132714056</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.853682066067</v>
+        <v>286.6995127486185</v>
       </c>
       <c r="C22" t="n">
-        <v>202.853682066067</v>
+        <v>114.7269496275345</v>
       </c>
       <c r="D22" t="n">
-        <v>202.853682066067</v>
+        <v>114.7269496275345</v>
       </c>
       <c r="E22" t="n">
-        <v>36.64547621892051</v>
+        <v>114.7269496275345</v>
       </c>
       <c r="F22" t="n">
-        <v>36.64547621892051</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="G22" t="n">
-        <v>36.64547621892051</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="H22" t="n">
-        <v>36.64547621892051</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="I22" t="n">
         <v>36.64547621892051</v>
       </c>
       <c r="J22" t="n">
-        <v>70.98045189553639</v>
+        <v>148.9021685437573</v>
       </c>
       <c r="K22" t="n">
-        <v>387.5043695738789</v>
+        <v>465.4260862220998</v>
       </c>
       <c r="L22" t="n">
-        <v>840.9921377830203</v>
+        <v>918.9138544312411</v>
       </c>
       <c r="M22" t="n">
-        <v>940.0670598753798</v>
+        <v>1372.401622640382</v>
       </c>
       <c r="N22" t="n">
-        <v>1038.063049723439</v>
+        <v>1633.04004132726</v>
       </c>
       <c r="O22" t="n">
-        <v>1256.1246201622</v>
+        <v>1720.254322113407</v>
       </c>
       <c r="P22" t="n">
-        <v>1640.410138371285</v>
+        <v>1791.783635749184</v>
       </c>
       <c r="Q22" t="n">
         <v>1832.273810946026</v>
@@ -5937,25 +5937,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S22" t="n">
-        <v>1748.427980263474</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="T22" t="n">
-        <v>1508.465556975384</v>
+        <v>1592.311387657936</v>
       </c>
       <c r="U22" t="n">
-        <v>1228.324218149978</v>
+        <v>1312.17004883253</v>
       </c>
       <c r="V22" t="n">
-        <v>946.6127507580068</v>
+        <v>1030.458581440558</v>
       </c>
       <c r="W22" t="n">
-        <v>671.7603469305199</v>
+        <v>755.6061776130714</v>
       </c>
       <c r="X22" t="n">
-        <v>429.1964503763249</v>
+        <v>513.0422810588765</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.853682066067</v>
+        <v>286.6995127486185</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1017.723135781585</v>
+        <v>2041.288610129326</v>
       </c>
       <c r="C23" t="n">
-        <v>590.8224057948848</v>
+        <v>1614.387880142626</v>
       </c>
       <c r="D23" t="n">
-        <v>590.8224057948848</v>
+        <v>1191.095259327626</v>
       </c>
       <c r="E23" t="n">
-        <v>164.8454659427424</v>
+        <v>765.1183194754836</v>
       </c>
       <c r="F23" t="n">
-        <v>164.8454659427424</v>
+        <v>339.9941376648839</v>
       </c>
       <c r="G23" t="n">
-        <v>60.17019067047762</v>
+        <v>339.9941376648839</v>
       </c>
       <c r="H23" t="n">
         <v>60.17019067047762</v>
@@ -6004,7 +6004,7 @@
         <v>1557.946005852832</v>
       </c>
       <c r="O23" t="n">
-        <v>1811.887781167386</v>
+        <v>1928.782004945571</v>
       </c>
       <c r="P23" t="n">
         <v>2139.90902238635</v>
@@ -6022,19 +6022,19 @@
         <v>3008.509533523881</v>
       </c>
       <c r="U23" t="n">
-        <v>3008.509533523881</v>
+        <v>2750.295579035223</v>
       </c>
       <c r="V23" t="n">
-        <v>2651.02011865013</v>
+        <v>2461.136974420856</v>
       </c>
       <c r="W23" t="n">
-        <v>2254.628768950477</v>
+        <v>2461.136974420856</v>
       </c>
       <c r="X23" t="n">
-        <v>1842.908770118224</v>
+        <v>2461.136974420856</v>
       </c>
       <c r="Y23" t="n">
-        <v>1437.571500073115</v>
+        <v>2461.136974420856</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1788.317828393922</v>
+        <v>617.2462807271984</v>
       </c>
       <c r="C24" t="n">
-        <v>1670.811924911427</v>
+        <v>499.7403772447032</v>
       </c>
       <c r="D24" t="n">
-        <v>1566.971966426712</v>
+        <v>395.9004187599882</v>
       </c>
       <c r="E24" t="n">
-        <v>1462.270032699649</v>
+        <v>291.1984850329254</v>
       </c>
       <c r="F24" t="n">
-        <v>1368.624202382553</v>
+        <v>197.5526547158296</v>
       </c>
       <c r="G24" t="n">
-        <v>1275.513149703959</v>
+        <v>104.4416020372358</v>
       </c>
       <c r="H24" t="n">
-        <v>1231.241738337201</v>
+        <v>60.17019067047762</v>
       </c>
       <c r="I24" t="n">
-        <v>1247.04282150754</v>
+        <v>99.4285796852279</v>
       </c>
       <c r="J24" t="n">
-        <v>1606.034173427155</v>
+        <v>458.4199316048436</v>
       </c>
       <c r="K24" t="n">
-        <v>1918.632794086757</v>
+        <v>585.4438053235191</v>
       </c>
       <c r="L24" t="n">
-        <v>2096.959480958876</v>
+        <v>763.7704921956379</v>
       </c>
       <c r="M24" t="n">
-        <v>2308.203804490204</v>
+        <v>975.0148157269653</v>
       </c>
       <c r="N24" t="n">
-        <v>2527.380541487112</v>
+        <v>1194.191552723873</v>
       </c>
       <c r="O24" t="n">
-        <v>2724.273719468268</v>
+        <v>1391.08473070503</v>
       </c>
       <c r="P24" t="n">
-        <v>2879.15622994281</v>
+        <v>1545.967241179572</v>
       </c>
       <c r="Q24" t="n">
-        <v>2974.579217084086</v>
+        <v>1698.052169132457</v>
       </c>
       <c r="R24" t="n">
-        <v>3008.509533523881</v>
+        <v>1837.437985857157</v>
       </c>
       <c r="S24" t="n">
-        <v>2944.695879964971</v>
+        <v>1773.624332298247</v>
       </c>
       <c r="T24" t="n">
-        <v>2806.615763808238</v>
+        <v>1635.544216141514</v>
       </c>
       <c r="U24" t="n">
-        <v>2621.909588721546</v>
+        <v>1450.838041054822</v>
       </c>
       <c r="V24" t="n">
-        <v>2416.936449860812</v>
+        <v>1245.864902194088</v>
       </c>
       <c r="W24" t="n">
-        <v>2220.415072694029</v>
+        <v>1049.343525027306</v>
       </c>
       <c r="X24" t="n">
-        <v>2056.937726460692</v>
+        <v>885.8661787939687</v>
       </c>
       <c r="Y24" t="n">
-        <v>1917.244837813985</v>
+        <v>746.1732901472611</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1104.905888262177</v>
+        <v>1111.766291831948</v>
       </c>
       <c r="C25" t="n">
         <v>939.7937287108641</v>
@@ -6153,7 +6153,7 @@
         <v>488.950800673657</v>
       </c>
       <c r="L25" t="n">
-        <v>958.8044224055858</v>
+        <v>958.8044224055859</v>
       </c>
       <c r="M25" t="n">
         <v>1471.414824960767</v>
@@ -6171,28 +6171,28 @@
         <v>3008.509533523881</v>
       </c>
       <c r="R25" t="n">
-        <v>2997.007661717023</v>
+        <v>3003.868065286794</v>
       </c>
       <c r="S25" t="n">
-        <v>2840.64615517165</v>
+        <v>2847.506558741421</v>
       </c>
       <c r="T25" t="n">
-        <v>2600.68373188356</v>
+        <v>2607.544135453331</v>
       </c>
       <c r="U25" t="n">
-        <v>2320.542393058154</v>
+        <v>2327.402796627925</v>
       </c>
       <c r="V25" t="n">
-        <v>2038.830925666183</v>
+        <v>2045.691329235954</v>
       </c>
       <c r="W25" t="n">
-        <v>1763.978521838696</v>
+        <v>1770.838925408467</v>
       </c>
       <c r="X25" t="n">
-        <v>1521.414625284501</v>
+        <v>1528.275028854272</v>
       </c>
       <c r="Y25" t="n">
-        <v>1295.071856974243</v>
+        <v>1301.932260544014</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1007.088176609386</v>
+        <v>1737.939948683362</v>
       </c>
       <c r="C26" t="n">
-        <v>580.1874466226866</v>
+        <v>1311.039218696662</v>
       </c>
       <c r="D26" t="n">
-        <v>580.1874466226866</v>
+        <v>887.7465978816628</v>
       </c>
       <c r="E26" t="n">
-        <v>154.2105067705442</v>
+        <v>461.7696580295203</v>
       </c>
       <c r="F26" t="n">
-        <v>154.2105067705442</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="G26" t="n">
-        <v>154.2105067705442</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="H26" t="n">
         <v>36.64547621892052</v>
@@ -6253,25 +6253,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S26" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T26" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="U26" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="V26" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="W26" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="X26" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="Y26" t="n">
-        <v>1426.936540900916</v>
+        <v>1768.056643368699</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I27" t="n">
-        <v>52.44655938925898</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J27" t="n">
-        <v>411.4379113088747</v>
+        <v>142.7927246836954</v>
       </c>
       <c r="K27" t="n">
-        <v>724.0365319684773</v>
+        <v>269.816598402371</v>
       </c>
       <c r="L27" t="n">
-        <v>902.3632188405961</v>
+        <v>448.1432852744898</v>
       </c>
       <c r="M27" t="n">
-        <v>1113.607542371924</v>
+        <v>659.3876088058173</v>
       </c>
       <c r="N27" t="n">
-        <v>1332.784279368831</v>
+        <v>878.5643458027254</v>
       </c>
       <c r="O27" t="n">
-        <v>1529.677457349988</v>
+        <v>1075.457523783882</v>
       </c>
       <c r="P27" t="n">
-        <v>1684.55996782453</v>
+        <v>1230.340034258424</v>
       </c>
       <c r="Q27" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R27" t="n">
         <v>1813.9132714056</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.6180393400045</v>
+        <v>566.8408515740251</v>
       </c>
       <c r="C28" t="n">
-        <v>36.64547621892052</v>
+        <v>414.8822613134917</v>
       </c>
       <c r="D28" t="n">
-        <v>36.64547621892052</v>
+        <v>414.8822613134917</v>
       </c>
       <c r="E28" t="n">
-        <v>36.64547621892052</v>
+        <v>414.8822613134917</v>
       </c>
       <c r="F28" t="n">
-        <v>36.64547621892052</v>
+        <v>414.8822613134917</v>
       </c>
       <c r="G28" t="n">
-        <v>36.64547621892052</v>
+        <v>249.4156356363644</v>
       </c>
       <c r="H28" t="n">
-        <v>36.64547621892052</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="I28" t="n">
         <v>36.64547621892052</v>
       </c>
       <c r="J28" t="n">
-        <v>70.98045189553639</v>
+        <v>148.9021685437573</v>
       </c>
       <c r="K28" t="n">
-        <v>140.2217604598569</v>
+        <v>266.326289345219</v>
       </c>
       <c r="L28" t="n">
-        <v>401.4476590294572</v>
+        <v>359.7910174859828</v>
       </c>
       <c r="M28" t="n">
-        <v>500.5225811218165</v>
+        <v>813.2787856951243</v>
       </c>
       <c r="N28" t="n">
-        <v>954.010349330958</v>
+        <v>1266.766553904266</v>
       </c>
       <c r="O28" t="n">
-        <v>1407.498117540099</v>
+        <v>1720.254322113407</v>
       </c>
       <c r="P28" t="n">
         <v>1791.783635749184</v>
@@ -6414,22 +6414,22 @@
         <v>1832.273810946026</v>
       </c>
       <c r="T28" t="n">
-        <v>1704.395882961388</v>
+        <v>1592.311387657936</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.254544135981</v>
+        <v>1592.311387657936</v>
       </c>
       <c r="V28" t="n">
-        <v>1142.54307674401</v>
+        <v>1310.599920265965</v>
       </c>
       <c r="W28" t="n">
-        <v>867.690672916523</v>
+        <v>1035.747516438478</v>
       </c>
       <c r="X28" t="n">
-        <v>625.1267763623281</v>
+        <v>793.1836198842831</v>
       </c>
       <c r="Y28" t="n">
-        <v>398.7840080520701</v>
+        <v>566.8408515740251</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>889.5231460577629</v>
+        <v>578.9988653711655</v>
       </c>
       <c r="C29" t="n">
-        <v>462.622416071063</v>
+        <v>578.9988653711655</v>
       </c>
       <c r="D29" t="n">
-        <v>462.622416071063</v>
+        <v>578.9988653711655</v>
       </c>
       <c r="E29" t="n">
-        <v>36.64547621892052</v>
+        <v>461.7696580295203</v>
       </c>
       <c r="F29" t="n">
         <v>36.64547621892052</v>
@@ -6490,25 +6490,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S29" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T29" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="U29" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="V29" t="n">
-        <v>1474.784396072276</v>
+        <v>1410.567228494948</v>
       </c>
       <c r="W29" t="n">
-        <v>1078.393046372622</v>
+        <v>1410.567228494948</v>
       </c>
       <c r="X29" t="n">
-        <v>1078.393046372622</v>
+        <v>998.8472296626956</v>
       </c>
       <c r="Y29" t="n">
-        <v>889.5231460577629</v>
+        <v>998.8472296626956</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I30" t="n">
-        <v>52.44655938925898</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J30" t="n">
-        <v>238.9478771819357</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K30" t="n">
-        <v>365.9717509006113</v>
+        <v>561.919090871962</v>
       </c>
       <c r="L30" t="n">
-        <v>544.29843777273</v>
+        <v>740.2457777440808</v>
       </c>
       <c r="M30" t="n">
-        <v>755.5427613040574</v>
+        <v>951.4901012754083</v>
       </c>
       <c r="N30" t="n">
-        <v>974.7194983009655</v>
+        <v>1170.666838272316</v>
       </c>
       <c r="O30" t="n">
-        <v>1171.612676282122</v>
+        <v>1367.560016253473</v>
       </c>
       <c r="P30" t="n">
-        <v>1326.495186756664</v>
+        <v>1522.442526728015</v>
       </c>
       <c r="Q30" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R30" t="n">
         <v>1813.9132714056</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6188071747897</v>
+        <v>543.7965864386734</v>
       </c>
       <c r="C31" t="n">
-        <v>112.6462440537057</v>
+        <v>371.8240233175894</v>
       </c>
       <c r="D31" t="n">
-        <v>112.6462440537057</v>
+        <v>208.5072504443601</v>
       </c>
       <c r="E31" t="n">
-        <v>112.6462440537057</v>
+        <v>208.5072504443601</v>
       </c>
       <c r="F31" t="n">
-        <v>112.6462440537057</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="G31" t="n">
-        <v>112.6462440537057</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="H31" t="n">
-        <v>112.6462440537057</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="I31" t="n">
         <v>36.64547621892052</v>
@@ -6627,16 +6627,16 @@
         <v>140.2217604598569</v>
       </c>
       <c r="L31" t="n">
-        <v>593.7095286689982</v>
+        <v>359.7910174859828</v>
       </c>
       <c r="M31" t="n">
-        <v>692.7844507613577</v>
+        <v>813.2787856951243</v>
       </c>
       <c r="N31" t="n">
-        <v>1146.272218970499</v>
+        <v>1266.766553904266</v>
       </c>
       <c r="O31" t="n">
-        <v>1599.759987179641</v>
+        <v>1720.254322113407</v>
       </c>
       <c r="P31" t="n">
         <v>1791.783635749184</v>
@@ -6645,28 +6645,28 @@
         <v>1832.273810946026</v>
       </c>
       <c r="R31" t="n">
-        <v>1820.771939139169</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S31" t="n">
-        <v>1794.016305774004</v>
+        <v>1675.912304400653</v>
       </c>
       <c r="T31" t="n">
-        <v>1554.053882485915</v>
+        <v>1435.949881112563</v>
       </c>
       <c r="U31" t="n">
-        <v>1273.912543660508</v>
+        <v>1435.949881112563</v>
       </c>
       <c r="V31" t="n">
-        <v>992.2010762685372</v>
+        <v>1154.238413720592</v>
       </c>
       <c r="W31" t="n">
-        <v>717.3486724410502</v>
+        <v>879.386009893105</v>
       </c>
       <c r="X31" t="n">
-        <v>474.7847758868553</v>
+        <v>770.1393547489314</v>
       </c>
       <c r="Y31" t="n">
-        <v>474.7847758868553</v>
+        <v>543.7965864386734</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1314.647327868363</v>
+        <v>1737.939948683362</v>
       </c>
       <c r="C32" t="n">
-        <v>887.7465978816628</v>
+        <v>1311.039218696662</v>
       </c>
       <c r="D32" t="n">
         <v>887.7465978816628</v>
@@ -6700,25 +6700,25 @@
         <v>69.01835878927048</v>
       </c>
       <c r="J32" t="n">
-        <v>186.4588626988265</v>
+        <v>186.4588626988269</v>
       </c>
       <c r="K32" t="n">
-        <v>370.7167439641689</v>
+        <v>370.7167439641693</v>
       </c>
       <c r="L32" t="n">
-        <v>605.3014751721346</v>
+        <v>605.3014751721349</v>
       </c>
       <c r="M32" t="n">
-        <v>871.4684718643574</v>
+        <v>871.4684718643578</v>
       </c>
       <c r="N32" t="n">
-        <v>1142.692072693648</v>
+        <v>1142.692072693649</v>
       </c>
       <c r="O32" t="n">
         <v>1396.633848008203</v>
       </c>
       <c r="P32" t="n">
-        <v>1607.760865448981</v>
+        <v>1607.760865448982</v>
       </c>
       <c r="Q32" t="n">
         <v>1758.480391624665</v>
@@ -6730,22 +6730,22 @@
         <v>1768.056643368699</v>
       </c>
       <c r="T32" t="n">
-        <v>1554.843949164646</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="U32" t="n">
-        <v>1554.843949164646</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="V32" t="n">
-        <v>1554.843949164646</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="W32" t="n">
-        <v>1554.843949164646</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="X32" t="n">
-        <v>1554.843949164646</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="Y32" t="n">
-        <v>1554.843949164646</v>
+        <v>1768.056643368699</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I33" t="n">
-        <v>52.44655938925898</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J33" t="n">
-        <v>411.4379113088747</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K33" t="n">
-        <v>538.4617850275503</v>
+        <v>561.919090871962</v>
       </c>
       <c r="L33" t="n">
-        <v>716.788471899669</v>
+        <v>740.2457777440808</v>
       </c>
       <c r="M33" t="n">
-        <v>928.0327954309964</v>
+        <v>951.4901012754083</v>
       </c>
       <c r="N33" t="n">
-        <v>1147.209532427904</v>
+        <v>1170.666838272316</v>
       </c>
       <c r="O33" t="n">
-        <v>1344.102710409061</v>
+        <v>1367.560016253473</v>
       </c>
       <c r="P33" t="n">
-        <v>1498.985220883603</v>
+        <v>1522.442526728015</v>
       </c>
       <c r="Q33" t="n">
         <v>1674.5274546809</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>449.9746439562725</v>
+        <v>611.3483711521301</v>
       </c>
       <c r="C34" t="n">
-        <v>449.9746439562725</v>
+        <v>439.3758080310461</v>
       </c>
       <c r="D34" t="n">
-        <v>449.9746439562725</v>
+        <v>439.3758080310461</v>
       </c>
       <c r="E34" t="n">
-        <v>449.9746439562725</v>
+        <v>273.1676021838996</v>
       </c>
       <c r="F34" t="n">
-        <v>278.1128697308329</v>
+        <v>101.30582795846</v>
       </c>
       <c r="G34" t="n">
-        <v>112.6462440537057</v>
+        <v>101.30582795846</v>
       </c>
       <c r="H34" t="n">
-        <v>112.6462440537057</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="I34" t="n">
         <v>36.64547621892052</v>
@@ -6861,13 +6861,13 @@
         <v>70.98045189553639</v>
       </c>
       <c r="K34" t="n">
-        <v>387.5043695738789</v>
+        <v>140.2217604598569</v>
       </c>
       <c r="L34" t="n">
-        <v>756.9394373905398</v>
+        <v>233.6864886006207</v>
       </c>
       <c r="M34" t="n">
-        <v>856.0143594828991</v>
+        <v>500.5225811218165</v>
       </c>
       <c r="N34" t="n">
         <v>954.010349330958</v>
@@ -6882,28 +6882,28 @@
         <v>1832.273810946026</v>
       </c>
       <c r="R34" t="n">
-        <v>1820.771939139169</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S34" t="n">
-        <v>1664.410432593796</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.448009305706</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="U34" t="n">
-        <v>1200.592776212696</v>
+        <v>1552.13247212062</v>
       </c>
       <c r="V34" t="n">
-        <v>918.8813088207254</v>
+        <v>1270.421004728649</v>
       </c>
       <c r="W34" t="n">
-        <v>918.8813088207254</v>
+        <v>1270.421004728649</v>
       </c>
       <c r="X34" t="n">
-        <v>676.3174122665305</v>
+        <v>1027.857108174454</v>
       </c>
       <c r="Y34" t="n">
-        <v>449.9746439562725</v>
+        <v>801.5143398641958</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1291.247513990149</v>
+        <v>1737.939948683362</v>
       </c>
       <c r="C35" t="n">
-        <v>864.3467840034493</v>
+        <v>1311.039218696662</v>
       </c>
       <c r="D35" t="n">
-        <v>864.3467840034493</v>
+        <v>887.7465978816628</v>
       </c>
       <c r="E35" t="n">
-        <v>864.3467840034493</v>
+        <v>461.7696580295203</v>
       </c>
       <c r="F35" t="n">
-        <v>439.2226021928495</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="G35" t="n">
         <v>36.64547621892052</v>
@@ -6934,28 +6934,28 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I35" t="n">
-        <v>69.01835878927048</v>
+        <v>69.01835878927056</v>
       </c>
       <c r="J35" t="n">
-        <v>186.4588626988265</v>
+        <v>186.4588626988266</v>
       </c>
       <c r="K35" t="n">
-        <v>370.7167439641689</v>
+        <v>370.716743964169</v>
       </c>
       <c r="L35" t="n">
         <v>605.3014751721346</v>
       </c>
       <c r="M35" t="n">
-        <v>871.4684718643574</v>
+        <v>871.4684718643575</v>
       </c>
       <c r="N35" t="n">
-        <v>1142.692072693648</v>
+        <v>1142.692072693649</v>
       </c>
       <c r="O35" t="n">
         <v>1396.633848008203</v>
       </c>
       <c r="P35" t="n">
-        <v>1607.760865448981</v>
+        <v>1607.760865448982</v>
       </c>
       <c r="Q35" t="n">
         <v>1758.480391624665</v>
@@ -6964,25 +6964,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S35" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T35" t="n">
-        <v>1619.061116741974</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="U35" t="n">
-        <v>1360.847162253316</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="V35" t="n">
-        <v>1291.247513990149</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.247513990149</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="X35" t="n">
-        <v>1291.247513990149</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="Y35" t="n">
-        <v>1291.247513990149</v>
+        <v>1768.056643368699</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I36" t="n">
-        <v>52.44655938925898</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J36" t="n">
-        <v>119.3354188392836</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K36" t="n">
-        <v>365.9717509006113</v>
+        <v>561.919090871962</v>
       </c>
       <c r="L36" t="n">
-        <v>544.29843777273</v>
+        <v>740.2457777440808</v>
       </c>
       <c r="M36" t="n">
-        <v>755.5427613040574</v>
+        <v>951.4901012754083</v>
       </c>
       <c r="N36" t="n">
-        <v>974.7194983009655</v>
+        <v>1170.666838272316</v>
       </c>
       <c r="O36" t="n">
-        <v>1171.612676282122</v>
+        <v>1367.560016253473</v>
       </c>
       <c r="P36" t="n">
-        <v>1326.495186756664</v>
+        <v>1522.442526728015</v>
       </c>
       <c r="Q36" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R36" t="n">
         <v>1813.9132714056</v>
@@ -7095,16 +7095,16 @@
         <v>36.64547621892052</v>
       </c>
       <c r="J37" t="n">
-        <v>70.98045189553639</v>
+        <v>148.9021685437573</v>
       </c>
       <c r="K37" t="n">
-        <v>140.2217604598569</v>
+        <v>465.4260862220998</v>
       </c>
       <c r="L37" t="n">
-        <v>359.7910174859828</v>
+        <v>918.9138544312412</v>
       </c>
       <c r="M37" t="n">
-        <v>813.2787856951243</v>
+        <v>1168.770564056207</v>
       </c>
       <c r="N37" t="n">
         <v>1266.766553904266</v>
@@ -7171,28 +7171,28 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I38" t="n">
-        <v>69.01835878927056</v>
+        <v>69.01835878927048</v>
       </c>
       <c r="J38" t="n">
-        <v>186.4588626988266</v>
+        <v>186.4588626988265</v>
       </c>
       <c r="K38" t="n">
-        <v>370.716743964169</v>
+        <v>370.7167439641689</v>
       </c>
       <c r="L38" t="n">
         <v>605.3014751721346</v>
       </c>
       <c r="M38" t="n">
-        <v>871.4684718643578</v>
+        <v>871.4684718643574</v>
       </c>
       <c r="N38" t="n">
-        <v>1142.692072693649</v>
+        <v>1142.692072693648</v>
       </c>
       <c r="O38" t="n">
         <v>1396.633848008203</v>
       </c>
       <c r="P38" t="n">
-        <v>1607.760865448982</v>
+        <v>1607.760865448981</v>
       </c>
       <c r="Q38" t="n">
         <v>1758.480391624665</v>
@@ -7201,25 +7201,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="U38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="V38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="W38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="X38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="Y38" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>75.90386523367081</v>
       </c>
       <c r="J39" t="n">
-        <v>257.2461267526626</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K39" t="n">
-        <v>384.2700004713382</v>
+        <v>618.5810316835715</v>
       </c>
       <c r="L39" t="n">
-        <v>562.596687343457</v>
+        <v>796.9077185556903</v>
       </c>
       <c r="M39" t="n">
-        <v>773.8410108747844</v>
+        <v>1008.152042087018</v>
       </c>
       <c r="N39" t="n">
         <v>1227.328779083926</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.6180393400045</v>
+        <v>202.853682066067</v>
       </c>
       <c r="C40" t="n">
-        <v>36.64547621892052</v>
+        <v>202.853682066067</v>
       </c>
       <c r="D40" t="n">
-        <v>36.64547621892052</v>
+        <v>202.853682066067</v>
       </c>
       <c r="E40" t="n">
         <v>36.64547621892052</v>
@@ -7359,25 +7359,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S40" t="n">
-        <v>1832.273810946026</v>
+        <v>1675.912304400653</v>
       </c>
       <c r="T40" t="n">
-        <v>1592.311387657936</v>
+        <v>1435.949881112563</v>
       </c>
       <c r="U40" t="n">
-        <v>1424.254544135981</v>
+        <v>1155.808542287157</v>
       </c>
       <c r="V40" t="n">
-        <v>1142.54307674401</v>
+        <v>874.0970748951856</v>
       </c>
       <c r="W40" t="n">
-        <v>867.690672916523</v>
+        <v>635.5835473323275</v>
       </c>
       <c r="X40" t="n">
-        <v>625.1267763623281</v>
+        <v>393.0196507781326</v>
       </c>
       <c r="Y40" t="n">
-        <v>398.7840080520701</v>
+        <v>393.0196507781326</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="C41" t="n">
-        <v>1405.373080959326</v>
+        <v>887.7465978816628</v>
       </c>
       <c r="D41" t="n">
-        <v>1167.570544876069</v>
+        <v>887.7465978816628</v>
       </c>
       <c r="E41" t="n">
-        <v>741.5936050239266</v>
+        <v>461.7696580295203</v>
       </c>
       <c r="F41" t="n">
-        <v>316.4694232133268</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="G41" t="n">
-        <v>316.4694232133268</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="H41" t="n">
         <v>36.64547621892052</v>
@@ -7411,25 +7411,25 @@
         <v>69.01835878927048</v>
       </c>
       <c r="J41" t="n">
-        <v>186.4588626988269</v>
+        <v>186.4588626988265</v>
       </c>
       <c r="K41" t="n">
-        <v>370.7167439641693</v>
+        <v>370.7167439641689</v>
       </c>
       <c r="L41" t="n">
-        <v>605.3014751721349</v>
+        <v>605.3014751721346</v>
       </c>
       <c r="M41" t="n">
-        <v>871.4684718643578</v>
+        <v>871.4684718643574</v>
       </c>
       <c r="N41" t="n">
-        <v>1142.692072693649</v>
+        <v>1142.692072693648</v>
       </c>
       <c r="O41" t="n">
         <v>1396.633848008203</v>
       </c>
       <c r="P41" t="n">
-        <v>1607.760865448982</v>
+        <v>1607.760865448981</v>
       </c>
       <c r="Q41" t="n">
         <v>1758.480391624665</v>
@@ -7438,25 +7438,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S41" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T41" t="n">
-        <v>1832.273810946026</v>
+        <v>1572.861282357021</v>
       </c>
       <c r="U41" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="V41" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="W41" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="X41" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
       <c r="Y41" t="n">
-        <v>1832.273810946026</v>
+        <v>1314.647327868363</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I42" t="n">
-        <v>52.44655938925898</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J42" t="n">
-        <v>298.407400515202</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K42" t="n">
-        <v>425.4312742338776</v>
+        <v>618.5810316835715</v>
       </c>
       <c r="L42" t="n">
-        <v>603.7579611059964</v>
+        <v>796.9077185556903</v>
       </c>
       <c r="M42" t="n">
-        <v>815.0022846373239</v>
+        <v>1008.152042087018</v>
       </c>
       <c r="N42" t="n">
-        <v>1034.179021634232</v>
+        <v>1227.328779083926</v>
       </c>
       <c r="O42" t="n">
-        <v>1231.072199615388</v>
+        <v>1424.221957065082</v>
       </c>
       <c r="P42" t="n">
-        <v>1684.55996782453</v>
+        <v>1579.104467539624</v>
       </c>
       <c r="Q42" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R42" t="n">
         <v>1813.9132714056</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.5072504443601</v>
+        <v>462.8772728707814</v>
       </c>
       <c r="C43" t="n">
-        <v>208.5072504443601</v>
+        <v>290.9047097496974</v>
       </c>
       <c r="D43" t="n">
-        <v>208.5072504443601</v>
+        <v>290.9047097496974</v>
       </c>
       <c r="E43" t="n">
-        <v>208.5072504443601</v>
+        <v>284.5080182791452</v>
       </c>
       <c r="F43" t="n">
-        <v>36.64547621892052</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="G43" t="n">
-        <v>36.64547621892052</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="H43" t="n">
-        <v>36.64547621892052</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="I43" t="n">
         <v>36.64547621892052</v>
       </c>
       <c r="J43" t="n">
-        <v>148.9021685437573</v>
+        <v>70.98045189553639</v>
       </c>
       <c r="K43" t="n">
-        <v>465.4260862220998</v>
+        <v>140.2217604598569</v>
       </c>
       <c r="L43" t="n">
-        <v>918.9138544312412</v>
+        <v>359.7910174859828</v>
       </c>
       <c r="M43" t="n">
-        <v>1017.988776523601</v>
+        <v>813.2787856951243</v>
       </c>
       <c r="N43" t="n">
-        <v>1115.984766371659</v>
+        <v>1266.766553904266</v>
       </c>
       <c r="O43" t="n">
-        <v>1256.1246201622</v>
+        <v>1720.254322113407</v>
       </c>
       <c r="P43" t="n">
-        <v>1640.410138371285</v>
+        <v>1791.783635749184</v>
       </c>
       <c r="Q43" t="n">
         <v>1832.273810946026</v>
@@ -7596,25 +7596,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S43" t="n">
-        <v>1832.273810946026</v>
+        <v>1675.912304400653</v>
       </c>
       <c r="T43" t="n">
-        <v>1704.285094065743</v>
+        <v>1435.949881112563</v>
       </c>
       <c r="U43" t="n">
-        <v>1424.143755240337</v>
+        <v>1435.949881112563</v>
       </c>
       <c r="V43" t="n">
-        <v>1142.432287848366</v>
+        <v>1154.238413720592</v>
       </c>
       <c r="W43" t="n">
-        <v>867.5798840208786</v>
+        <v>879.386009893105</v>
       </c>
       <c r="X43" t="n">
-        <v>625.0159874666837</v>
+        <v>879.386009893105</v>
       </c>
       <c r="Y43" t="n">
-        <v>398.6732191564257</v>
+        <v>653.043241582847</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>887.7465978816628</v>
+        <v>1312.815766872763</v>
       </c>
       <c r="C44" t="n">
-        <v>887.7465978816628</v>
+        <v>885.9150368860627</v>
       </c>
       <c r="D44" t="n">
-        <v>887.7465978816628</v>
+        <v>462.622416071063</v>
       </c>
       <c r="E44" t="n">
-        <v>461.7696580295203</v>
+        <v>36.64547621892052</v>
       </c>
       <c r="F44" t="n">
         <v>36.64547621892052</v>
@@ -7660,13 +7660,13 @@
         <v>871.4684718643574</v>
       </c>
       <c r="N44" t="n">
-        <v>1142.692072693649</v>
+        <v>1142.692072693648</v>
       </c>
       <c r="O44" t="n">
         <v>1396.633848008203</v>
       </c>
       <c r="P44" t="n">
-        <v>1607.760865448982</v>
+        <v>1607.760865448981</v>
       </c>
       <c r="Q44" t="n">
         <v>1758.480391624665</v>
@@ -7675,25 +7675,25 @@
         <v>1832.273810946026</v>
       </c>
       <c r="S44" t="n">
-        <v>1832.273810946026</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="T44" t="n">
-        <v>1619.061116741974</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="U44" t="n">
-        <v>1360.847162253316</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="V44" t="n">
-        <v>1003.357747379565</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="W44" t="n">
-        <v>887.7465978816628</v>
+        <v>1768.056643368699</v>
       </c>
       <c r="X44" t="n">
-        <v>887.7465978816628</v>
+        <v>1732.664131164293</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.7465978816628</v>
+        <v>1732.664131164293</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>36.64547621892052</v>
       </c>
       <c r="I45" t="n">
-        <v>52.44655938925898</v>
+        <v>75.90386523367081</v>
       </c>
       <c r="J45" t="n">
-        <v>411.4379113088747</v>
+        <v>434.8952171532865</v>
       </c>
       <c r="K45" t="n">
-        <v>538.4617850275503</v>
+        <v>561.919090871962</v>
       </c>
       <c r="L45" t="n">
-        <v>716.788471899669</v>
+        <v>740.2457777440808</v>
       </c>
       <c r="M45" t="n">
-        <v>928.0327954309964</v>
+        <v>951.4901012754083</v>
       </c>
       <c r="N45" t="n">
-        <v>1147.209532427904</v>
+        <v>1170.666838272316</v>
       </c>
       <c r="O45" t="n">
-        <v>1344.102710409061</v>
+        <v>1367.560016253473</v>
       </c>
       <c r="P45" t="n">
-        <v>1498.985220883603</v>
+        <v>1522.442526728015</v>
       </c>
       <c r="Q45" t="n">
-        <v>1779.982954965805</v>
+        <v>1674.5274546809</v>
       </c>
       <c r="R45" t="n">
         <v>1813.9132714056</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.6180393400045</v>
+        <v>1088.241577380391</v>
       </c>
       <c r="C46" t="n">
-        <v>36.64547621892052</v>
+        <v>916.269014259307</v>
       </c>
       <c r="D46" t="n">
-        <v>36.64547621892052</v>
+        <v>752.9522413860777</v>
       </c>
       <c r="E46" t="n">
-        <v>36.64547621892052</v>
+        <v>586.7440355389313</v>
       </c>
       <c r="F46" t="n">
-        <v>36.64547621892052</v>
+        <v>414.8822613134917</v>
       </c>
       <c r="G46" t="n">
-        <v>36.64547621892052</v>
+        <v>249.4156356363644</v>
       </c>
       <c r="H46" t="n">
-        <v>36.64547621892052</v>
+        <v>112.6462440537057</v>
       </c>
       <c r="I46" t="n">
         <v>36.64547621892052</v>
       </c>
       <c r="J46" t="n">
-        <v>148.9021685437573</v>
+        <v>70.98045189553639</v>
       </c>
       <c r="K46" t="n">
-        <v>465.4260862220998</v>
+        <v>140.2217604598569</v>
       </c>
       <c r="L46" t="n">
-        <v>558.8908143628636</v>
+        <v>359.7910174859828</v>
       </c>
       <c r="M46" t="n">
-        <v>657.9657364552229</v>
+        <v>813.2787856951243</v>
       </c>
       <c r="N46" t="n">
-        <v>802.636851953059</v>
+        <v>1266.766553904266</v>
       </c>
       <c r="O46" t="n">
-        <v>1256.1246201622</v>
+        <v>1720.254322113407</v>
       </c>
       <c r="P46" t="n">
-        <v>1640.410138371285</v>
+        <v>1791.783635749184</v>
       </c>
       <c r="Q46" t="n">
         <v>1832.273810946026</v>
       </c>
       <c r="R46" t="n">
-        <v>1820.771939139169</v>
+        <v>1832.273810946026</v>
       </c>
       <c r="S46" t="n">
-        <v>1820.771939139169</v>
+        <v>1747.314210956909</v>
       </c>
       <c r="T46" t="n">
-        <v>1704.395882961388</v>
+        <v>1747.314210956909</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.254544135981</v>
+        <v>1747.314210956909</v>
       </c>
       <c r="V46" t="n">
-        <v>1142.54307674401</v>
+        <v>1747.314210956909</v>
       </c>
       <c r="W46" t="n">
-        <v>867.690672916523</v>
+        <v>1747.314210956909</v>
       </c>
       <c r="X46" t="n">
-        <v>625.1267763623281</v>
+        <v>1504.750314402715</v>
       </c>
       <c r="Y46" t="n">
-        <v>398.7840080520701</v>
+        <v>1278.407546092457</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>350.2368233419281</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>448.383797370591</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>495.499715635938</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>495.3480755709522</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>495.6438145467375</v>
       </c>
       <c r="Q2" t="n">
         <v>494.1931273411042</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>480.5835394507357</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>481.1652332488342</v>
       </c>
       <c r="N3" t="n">
         <v>479.4114809500479</v>
       </c>
       <c r="O3" t="n">
-        <v>481.2403424587284</v>
+        <v>462.7325261865462</v>
       </c>
       <c r="P3" t="n">
-        <v>370.9618281271175</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>480.8154910254847</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8148,16 +8148,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>199.7370592129047</v>
       </c>
       <c r="O4" t="n">
-        <v>286.3806500394745</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>477.8726788969471</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>495.499715635938</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>495.4594120925303</v>
+        <v>495.4594120925306</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>450.1945583860135</v>
       </c>
       <c r="Q5" t="n">
-        <v>494.1931273411042</v>
+        <v>494.1931273411045</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>97.14831239239891</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>480.583539450736</v>
       </c>
       <c r="M6" t="n">
-        <v>481.1652332488342</v>
+        <v>481.1652332488345</v>
       </c>
       <c r="N6" t="n">
-        <v>479.4114809500479</v>
+        <v>479.4114809500481</v>
       </c>
       <c r="O6" t="n">
-        <v>481.2403424587284</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>96.51991976389428</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>47.13611657454192</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>371.6540923740164</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>493.8330535313155</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>450.9312390084046</v>
+        <v>496.3804951691294</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>495.4997156359383</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>495.3480755709525</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>476.9515958203485</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>494.1931273411042</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>480.5835394507357</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>481.1652332488342</v>
+        <v>481.1652332488345</v>
       </c>
       <c r="N9" t="n">
-        <v>186.4617563146425</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>481.2403424587284</v>
+        <v>481.2403424587287</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>370.9618281271176</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>480.815491025485</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>278.4072023587227</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>87.11324848581458</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8768,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>329.7615095863291</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>187.4492393342695</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.740752444497</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8859,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>359.0826044051339</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>241.9042558007471</v>
+        <v>206.3626973558522</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>57.23428364809035</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>244.6903481594081</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.5969581852388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>127.3783120054161</v>
+        <v>363.6596364327046</v>
       </c>
       <c r="M16" t="n">
-        <v>357.9927738553354</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>359.0826044051338</v>
       </c>
       <c r="O16" t="n">
-        <v>369.9732196191871</v>
+        <v>163.1954511055745</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>57.23428364809035</v>
       </c>
       <c r="L18" t="n">
-        <v>223.3158072550835</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>259.1864547757425</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>363.6596364327046</v>
       </c>
       <c r="M19" t="n">
-        <v>47.14659156543124</v>
+        <v>357.9927738553353</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>369.9732196191871</v>
+        <v>164.2852816553731</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>120.8206649925779</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>361.6815970382482</v>
+        <v>57.23428364808998</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9567,19 +9567,19 @@
         <v>363.6596364327046</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>357.9927738553353</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>164.285281655373</v>
       </c>
       <c r="O22" t="n">
-        <v>132.1689794470864</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>118.0749735133181</v>
       </c>
       <c r="P23" t="n">
-        <v>118.074973513318</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>187.4492393342691</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>57.23428364808998</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>187.4492393342698</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>352.2873063446467</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>48.66950731024372</v>
       </c>
       <c r="L28" t="n">
-        <v>169.4557277058954</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>357.9927738553354</v>
       </c>
       <c r="N28" t="n">
         <v>359.0826044051339</v>
@@ -10050,7 +10050,7 @@
         <v>369.9732196191872</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>120.8206649925778</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>361.6815970382482</v>
+        <v>57.23428364808998</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>363.6596364327047</v>
+        <v>127.3783120054163</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>357.9927738553354</v>
       </c>
       <c r="N31" t="n">
         <v>359.0826044051339</v>
       </c>
       <c r="O31" t="n">
-        <v>369.9732196191871</v>
+        <v>369.9732196191872</v>
       </c>
       <c r="P31" t="n">
-        <v>121.711449428047</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>80.92853197577895</v>
+        <v>57.23428364808998</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,19 +10509,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>278.7579188645424</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>169.4557277058954</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>359.0826044051339</v>
       </c>
       <c r="O34" t="n">
-        <v>369.9732196191871</v>
+        <v>369.9732196191872</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>120.8206649925779</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>361.6815970382482</v>
+        <v>57.23428364808998</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>127.3783120054163</v>
+        <v>363.6596364327047</v>
       </c>
       <c r="M37" t="n">
-        <v>357.9927738553354</v>
+        <v>152.3048358915215</v>
       </c>
       <c r="N37" t="n">
-        <v>359.0826044051339</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>369.9732196191871</v>
+        <v>369.9732196191872</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>115.6094970393608</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>57.23428364809035</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>236.6778093052862</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>180.8807895716348</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>57.23428364809035</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>301.6214724591914</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>363.6596364327047</v>
+        <v>127.3783120054163</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>357.9927738553354</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>359.0826044051339</v>
       </c>
       <c r="O43" t="n">
-        <v>53.4601747519141</v>
+        <v>369.9732196191872</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>187.4492393342695</v>
+        <v>57.23428364808998</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>127.3783120054163</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>357.9927738553354</v>
       </c>
       <c r="N46" t="n">
-        <v>47.14659156543156</v>
+        <v>359.0826044051339</v>
       </c>
       <c r="O46" t="n">
-        <v>369.9732196191871</v>
+        <v>369.9732196191872</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5513547141897</v>
+        <v>160.756699630869</v>
       </c>
       <c r="H11" t="n">
         <v>277.0257075244622</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.26942740262928</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6318149437713</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>111.780874281799</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>11.38685308878859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.93640462299963</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>279.833876839116</v>
+        <v>398.5513547141897</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.0257075244622</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.0805672620119</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>118.111237923924</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23664,13 +23664,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8119594203559</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4016976668321</v>
+        <v>77.34677057558356</v>
       </c>
       <c r="I16" t="n">
         <v>75.24076015643728</v>
@@ -23706,13 +23706,13 @@
         <v>154.7978914799193</v>
       </c>
       <c r="T16" t="n">
-        <v>110.9636503504171</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.0805672620119</v>
+        <v>17.83715986045092</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23797,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>314.2122752038932</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,25 +23892,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8119594203559</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4016976668321</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.38685308878859</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.7978914799193</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.390153889538169</v>
       </c>
       <c r="U19" t="n">
-        <v>88.77440488749188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>112.4669842780961</v>
+        <v>9.956624669800505</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24129,16 +24129,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>168.0832579650946</v>
       </c>
       <c r="G22" t="n">
         <v>163.8119594203559</v>
@@ -24147,7 +24147,7 @@
         <v>135.4016976668321</v>
       </c>
       <c r="I22" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>11.38685308878859</v>
       </c>
       <c r="S22" t="n">
-        <v>71.79051910419297</v>
+        <v>154.7978914799193</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>294.9228321946476</v>
+        <v>398.5513547141897</v>
       </c>
       <c r="H23" t="n">
-        <v>277.0257075244622</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>211.0805672620119</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>67.6475021567901</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.791799534073306</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.791799534073027</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>385.8343529101315</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.5513547141897</v>
       </c>
       <c r="H26" t="n">
-        <v>160.6363272783548</v>
+        <v>277.0257075244622</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>211.0805672620119</v>
@@ -24511,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>19.81383313194502</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8119594203559</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>135.4016976668321</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>154.7978914799193</v>
       </c>
       <c r="T28" t="n">
-        <v>110.9636503504169</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>305.6602551853923</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.5513547141897</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>211.0805672620119</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>214.3026960329477</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.8119594203559</v>
@@ -24858,7 +24858,7 @@
         <v>135.4016976668321</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>11.38685308878859</v>
       </c>
       <c r="S31" t="n">
-        <v>128.3098144484066</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>131.9840689959211</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>177.8552255652939</v>
+        <v>385.8343529101315</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.0805672620119</v>
       </c>
       <c r="U32" t="n">
         <v>255.6318149437713</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8119594203559</v>
       </c>
       <c r="H34" t="n">
-        <v>135.4016976668321</v>
+        <v>71.38794944468803</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.24076015643728</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>11.38685308878859</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.7978914799193</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.562799055209</v>
       </c>
       <c r="U34" t="n">
-        <v>55.72324467507279</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>385.8343529101315</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.5513547141897</v>
       </c>
       <c r="H35" t="n">
         <v>277.0257075244622</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.0805672620119</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V35" t="n">
-        <v>285.0108689444781</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>322.2593570085775</v>
+        <v>385.8343529101315</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.0805672620119</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -25599,25 +25599,25 @@
         <v>11.38685308878859</v>
       </c>
       <c r="S40" t="n">
-        <v>154.7978914799193</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>110.9636503504167</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>35.97548750198254</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6351838844252</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.5513547141897</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>277.0257075244622</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.0805672620119</v>
+        <v>17.83715986045047</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6318149437713</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>158.2133992328283</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>135.4016976668321</v>
       </c>
       <c r="I43" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>11.38685308878859</v>
       </c>
       <c r="S43" t="n">
-        <v>154.7978914799193</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.8539693437289</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.5513547141897</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.57499590155389</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.0805672620119</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6318149437713</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>277.9723981997332</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>372.5642117615682</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8119594203559</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.4016976668321</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.24076015643728</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.38685308878859</v>
       </c>
       <c r="S46" t="n">
-        <v>154.7978914799193</v>
+        <v>70.68788749069383</v>
       </c>
       <c r="T46" t="n">
-        <v>122.3505034392056</v>
+        <v>237.562799055209</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3399254371521</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369516.0496240758</v>
+        <v>369516.0496240757</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>538649.1604710183</v>
+        <v>538649.1604710182</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>369516.049624076</v>
+        <v>369516.0496240758</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>369516.0496240758</v>
+        <v>369516.0496240759</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>369516.0496240759</v>
+        <v>369516.0496240758</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369516.0496240759</v>
+        <v>369516.0496240758</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349465.600806698</v>
+        <v>349465.6008066977</v>
       </c>
       <c r="C2" t="n">
+        <v>349465.6008066976</v>
+      </c>
+      <c r="D2" t="n">
         <v>349465.6008066979</v>
-      </c>
-      <c r="D2" t="n">
-        <v>349465.6008066977</v>
       </c>
       <c r="E2" t="n">
         <v>185673.8377270722</v>
       </c>
       <c r="F2" t="n">
-        <v>185673.837727072</v>
+        <v>185673.8377270721</v>
       </c>
       <c r="G2" t="n">
-        <v>185673.8377270722</v>
+        <v>185673.8377270721</v>
       </c>
       <c r="H2" t="n">
         <v>185673.8377270722</v>
       </c>
       <c r="I2" t="n">
-        <v>256609.8288295516</v>
+        <v>256609.8288295515</v>
       </c>
       <c r="J2" t="n">
-        <v>185673.8377270723</v>
+        <v>185673.8377270722</v>
       </c>
       <c r="K2" t="n">
-        <v>185673.8377270723</v>
+        <v>185673.8377270721</v>
       </c>
       <c r="L2" t="n">
         <v>185673.8377270722</v>
       </c>
       <c r="M2" t="n">
-        <v>185673.837727072</v>
+        <v>185673.8377270722</v>
       </c>
       <c r="N2" t="n">
         <v>185673.8377270722</v>
       </c>
       <c r="O2" t="n">
-        <v>185673.8377270722</v>
+        <v>185673.8377270721</v>
       </c>
       <c r="P2" t="n">
         <v>185673.8377270722</v>
@@ -26420,7 +26420,7 @@
         <v>245906.9852575979</v>
       </c>
       <c r="C4" t="n">
-        <v>245906.985257598</v>
+        <v>245906.9852575979</v>
       </c>
       <c r="D4" t="n">
         <v>245906.9852575979</v>
@@ -26432,10 +26432,10 @@
         <v>14037.22920778401</v>
       </c>
       <c r="G4" t="n">
-        <v>14037.229207784</v>
+        <v>14037.22920778401</v>
       </c>
       <c r="H4" t="n">
-        <v>14037.229207784</v>
+        <v>14037.22920778401</v>
       </c>
       <c r="I4" t="n">
         <v>47390.63113928001</v>
@@ -26472,10 +26472,10 @@
         <v>61478.16192637957</v>
       </c>
       <c r="C5" t="n">
-        <v>61478.16192637957</v>
+        <v>61478.16192637959</v>
       </c>
       <c r="D5" t="n">
-        <v>61478.16192637957</v>
+        <v>61478.16192637959</v>
       </c>
       <c r="E5" t="n">
         <v>37309.55732995665</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111428.8204636956</v>
+        <v>-111428.8204636959</v>
       </c>
       <c r="C6" t="n">
-        <v>42080.45362272032</v>
+        <v>42080.45362272016</v>
       </c>
       <c r="D6" t="n">
-        <v>42080.45362272023</v>
+        <v>42080.45362272045</v>
       </c>
       <c r="E6" t="n">
-        <v>-214268.6040501188</v>
+        <v>-214951.0697296173</v>
       </c>
       <c r="F6" t="n">
-        <v>134327.0511893314</v>
+        <v>133644.585509833</v>
       </c>
       <c r="G6" t="n">
-        <v>134327.0511893315</v>
+        <v>133644.585509833</v>
       </c>
       <c r="H6" t="n">
-        <v>134327.0511893315</v>
+        <v>133644.5855098331</v>
       </c>
       <c r="I6" t="n">
-        <v>75834.4124812251</v>
+        <v>75447.51343132026</v>
       </c>
       <c r="J6" t="n">
-        <v>91414.94379108126</v>
+        <v>90732.47811158269</v>
       </c>
       <c r="K6" t="n">
-        <v>134327.0511893316</v>
+        <v>133644.585509833</v>
       </c>
       <c r="L6" t="n">
-        <v>134327.0511893316</v>
+        <v>133644.5855098332</v>
       </c>
       <c r="M6" t="n">
-        <v>134327.0511893314</v>
+        <v>133644.5855098332</v>
       </c>
       <c r="N6" t="n">
-        <v>134327.0511893315</v>
+        <v>133644.5855098331</v>
       </c>
       <c r="O6" t="n">
-        <v>134327.0511893315</v>
+        <v>133644.585509833</v>
       </c>
       <c r="P6" t="n">
-        <v>134327.0511893315</v>
+        <v>133644.5855098332</v>
       </c>
     </row>
   </sheetData>
@@ -26792,22 +26792,22 @@
         <v>458.0684527365062</v>
       </c>
       <c r="C4" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="D4" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="E4" t="n">
         <v>458.0684527365065</v>
       </c>
       <c r="F4" t="n">
-        <v>458.0684527365065</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="G4" t="n">
-        <v>458.0684527365065</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="H4" t="n">
-        <v>458.0684527365065</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="I4" t="n">
         <v>752.1273833809702</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323.8691611862701</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>219.9743037634255</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.92870289487166</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>12.92870289487138</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.73227237010059</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27602,7 +27602,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>162.1610913456696</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>184.7059427733901</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>69.31324871316713</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>12.92870289487064</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>12.92870289487155</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>78.99627992771572</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.52741464298521</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>331.4417249836126</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>221.7609878371289</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>12.92870289487064</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>12.92870289487138</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>65.7329067499706</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>15.66896027320817</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>320.8168638563416</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>412.6191965757816</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>458.0684527365062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>458.0684527365062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>458.0684527365062</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>458.0684527365062</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>458.0684527365062</v>
       </c>
       <c r="N3" t="n">
         <v>458.0684527365062</v>
       </c>
       <c r="O3" t="n">
-        <v>458.0684527365062</v>
+        <v>439.560636464324</v>
       </c>
       <c r="P3" t="n">
-        <v>349.1909869222888</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>458.0684527365062</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34868,16 +34868,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>178.9881582373044</v>
       </c>
       <c r="O4" t="n">
-        <v>263.88146254105</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>439.5606364643242</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>458.0684527365062</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>412.6191965757822</v>
       </c>
       <c r="Q5" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>74.74907855906557</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="M6" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="O6" t="n">
-        <v>458.0684527365062</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>74.74907855906562</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>26.49936059064005</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>350.905191398416</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>458.0684527365062</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>412.6191965757816</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>439.5606364643244</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>458.0684527365062</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>458.0684527365062</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="N9" t="n">
-        <v>165.1187281011009</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>458.0684527365062</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>349.1909869222889</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4884424630215</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>64.53780859432877</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35415,7 +35415,7 @@
         <v>186.1190719851944</v>
       </c>
       <c r="L11" t="n">
-        <v>236.9542739474402</v>
+        <v>236.95427394744</v>
       </c>
       <c r="M11" t="n">
         <v>268.8555522143665</v>
@@ -35488,10 +35488,10 @@
         <v>15.96069007104894</v>
       </c>
       <c r="J12" t="n">
-        <v>67.56450449497436</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K12" t="n">
-        <v>458.0684527365065</v>
+        <v>128.3069431501773</v>
       </c>
       <c r="L12" t="n">
         <v>180.1279665374937</v>
@@ -35506,10 +35506,10 @@
         <v>198.881997960764</v>
       </c>
       <c r="P12" t="n">
-        <v>156.4469802773152</v>
+        <v>343.8962196115846</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.1276081427553</v>
+        <v>96.38685569825824</v>
       </c>
       <c r="R12" t="n">
         <v>34.27304690888375</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.68179361274331</v>
+        <v>113.3905983079159</v>
       </c>
       <c r="K13" t="n">
         <v>319.7211289680228</v>
@@ -35579,13 +35579,13 @@
         <v>100.0756788811711</v>
       </c>
       <c r="N13" t="n">
-        <v>458.0684527365065</v>
+        <v>98.98584833137259</v>
       </c>
       <c r="O13" t="n">
-        <v>329.9994889180664</v>
+        <v>294.4579304731716</v>
       </c>
       <c r="P13" t="n">
-        <v>72.25183195533063</v>
+        <v>388.1671901101868</v>
       </c>
       <c r="Q13" t="n">
         <v>40.8991668654965</v>
@@ -35725,16 +35725,16 @@
         <v>39.65493839873767</v>
       </c>
       <c r="J15" t="n">
-        <v>67.56450449497436</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K15" t="n">
-        <v>128.3069431501773</v>
+        <v>185.5412267982677</v>
       </c>
       <c r="L15" t="n">
         <v>180.1279665374937</v>
       </c>
       <c r="M15" t="n">
-        <v>458.0684527365065</v>
+        <v>213.3781045770984</v>
       </c>
       <c r="N15" t="n">
         <v>221.3906434312203</v>
@@ -35746,7 +35746,7 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.9838138834971</v>
+        <v>96.38685569825824</v>
       </c>
       <c r="R15" t="n">
         <v>140.7937542673745</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.68179361274331</v>
+        <v>113.3905983079159</v>
       </c>
       <c r="K16" t="n">
-        <v>69.94071572153581</v>
+        <v>319.7211289680228</v>
       </c>
       <c r="L16" t="n">
-        <v>221.787128309218</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="M16" t="n">
-        <v>458.0684527365065</v>
+        <v>100.0756788811711</v>
       </c>
       <c r="N16" t="n">
-        <v>458.0684527365065</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="O16" t="n">
-        <v>458.0684527365065</v>
+        <v>251.2906842228939</v>
       </c>
       <c r="P16" t="n">
         <v>72.25183195533063</v>
@@ -35892,7 +35892,7 @@
         <v>236.95427394744</v>
       </c>
       <c r="M17" t="n">
-        <v>268.8555522143666</v>
+        <v>268.8555522143665</v>
       </c>
       <c r="N17" t="n">
         <v>273.9632331609001</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J18" t="n">
-        <v>67.56450449497436</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3069431501773</v>
+        <v>185.5412267982677</v>
       </c>
       <c r="L18" t="n">
-        <v>403.4437737925772</v>
+        <v>180.1279665374937</v>
       </c>
       <c r="M18" t="n">
         <v>213.3781045770984</v>
@@ -35977,7 +35977,7 @@
         <v>221.3906434312203</v>
       </c>
       <c r="O18" t="n">
-        <v>458.0684527365065</v>
+        <v>198.881997960764</v>
       </c>
       <c r="P18" t="n">
         <v>156.4469802773152</v>
@@ -35986,7 +35986,7 @@
         <v>96.38685569825824</v>
       </c>
       <c r="R18" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>319.7211289680228</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40881630380184</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="M19" t="n">
-        <v>147.2222704466023</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="N19" t="n">
         <v>98.98584833137259</v>
       </c>
       <c r="O19" t="n">
-        <v>458.0684527365065</v>
+        <v>252.3805147726925</v>
       </c>
       <c r="P19" t="n">
-        <v>388.1671901101868</v>
+        <v>72.25183195533063</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.8016894694349</v>
+        <v>40.8991668654965</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>152.2419456320036</v>
       </c>
       <c r="R20" t="n">
-        <v>74.53880739531431</v>
+        <v>74.53880739531408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J21" t="n">
-        <v>188.3851694875522</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K21" t="n">
         <v>128.3069431501773</v>
@@ -36220,10 +36220,10 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q21" t="n">
-        <v>458.0684527365065</v>
+        <v>153.6211393463482</v>
       </c>
       <c r="R21" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.68179361274331</v>
+        <v>113.3905983079159</v>
       </c>
       <c r="K22" t="n">
         <v>319.7211289680228</v>
       </c>
       <c r="L22" t="n">
-        <v>458.0684527365065</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="M22" t="n">
-        <v>100.0756788811711</v>
+        <v>458.0684527365064</v>
       </c>
       <c r="N22" t="n">
-        <v>98.98584833137259</v>
+        <v>263.2711299867456</v>
       </c>
       <c r="O22" t="n">
-        <v>220.2642125644057</v>
+        <v>88.09523311731935</v>
       </c>
       <c r="P22" t="n">
-        <v>388.1671901101868</v>
+        <v>72.25183195533063</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.8016894694349</v>
+        <v>40.8991668654965</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>273.9632331609001</v>
       </c>
       <c r="O23" t="n">
-        <v>256.5068437520749</v>
+        <v>374.5818172653929</v>
       </c>
       <c r="P23" t="n">
-        <v>331.3345870898619</v>
+        <v>213.2596135765439</v>
       </c>
       <c r="Q23" t="n">
         <v>649.0590237761805</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J24" t="n">
         <v>362.617527191531</v>
       </c>
       <c r="K24" t="n">
-        <v>315.7561824844464</v>
+        <v>128.3069431501773</v>
       </c>
       <c r="L24" t="n">
         <v>180.1279665374937</v>
@@ -36457,10 +36457,10 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.38685569825824</v>
+        <v>153.6211393463482</v>
       </c>
       <c r="R24" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J27" t="n">
-        <v>362.617527191531</v>
+        <v>67.56450449497436</v>
       </c>
       <c r="K27" t="n">
-        <v>315.7561824844472</v>
+        <v>128.3069431501773</v>
       </c>
       <c r="L27" t="n">
         <v>180.1279665374937</v>
@@ -36694,10 +36694,10 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.38685569825824</v>
+        <v>448.674162042905</v>
       </c>
       <c r="R27" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.68179361274331</v>
+        <v>113.3905983079159</v>
       </c>
       <c r="K28" t="n">
-        <v>69.94071572153581</v>
+        <v>118.6102230317795</v>
       </c>
       <c r="L28" t="n">
-        <v>263.8645440096973</v>
+        <v>94.40881630380184</v>
       </c>
       <c r="M28" t="n">
-        <v>100.0756788811711</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="N28" t="n">
         <v>458.0684527365065</v>
@@ -36770,7 +36770,7 @@
         <v>458.0684527365065</v>
       </c>
       <c r="P28" t="n">
-        <v>388.1671901101868</v>
+        <v>72.25183195533063</v>
       </c>
       <c r="Q28" t="n">
         <v>40.8991668654965</v>
@@ -36852,10 +36852,10 @@
         <v>213.2596135765439</v>
       </c>
       <c r="Q29" t="n">
-        <v>152.2419456320036</v>
+        <v>152.241945632004</v>
       </c>
       <c r="R29" t="n">
-        <v>74.53880739531455</v>
+        <v>74.53880739531414</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J30" t="n">
-        <v>188.3851694875522</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K30" t="n">
         <v>128.3069431501773</v>
@@ -36931,10 +36931,10 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q30" t="n">
-        <v>458.0684527365065</v>
+        <v>153.6211393463482</v>
       </c>
       <c r="R30" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,10 +36995,10 @@
         <v>69.94071572153581</v>
       </c>
       <c r="L31" t="n">
+        <v>221.7871283092182</v>
+      </c>
+      <c r="M31" t="n">
         <v>458.0684527365065</v>
-      </c>
-      <c r="M31" t="n">
-        <v>100.0756788811711</v>
       </c>
       <c r="N31" t="n">
         <v>458.0684527365065</v>
@@ -37007,7 +37007,7 @@
         <v>458.0684527365065</v>
       </c>
       <c r="P31" t="n">
-        <v>193.9632813833776</v>
+        <v>72.25183195533063</v>
       </c>
       <c r="Q31" t="n">
         <v>40.8991668654965</v>
@@ -37068,7 +37068,7 @@
         <v>32.69988138419187</v>
       </c>
       <c r="J32" t="n">
-        <v>118.6267716258142</v>
+        <v>118.6267716258145</v>
       </c>
       <c r="K32" t="n">
         <v>186.1190719851944</v>
@@ -37092,7 +37092,7 @@
         <v>152.2419456320036</v>
       </c>
       <c r="R32" t="n">
-        <v>74.53880739531455</v>
+        <v>74.53880739531414</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J33" t="n">
         <v>362.617527191531</v>
@@ -37168,7 +37168,7 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.3153876740372</v>
+        <v>153.6211393463482</v>
       </c>
       <c r="R33" t="n">
         <v>140.7937542673745</v>
@@ -37229,16 +37229,16 @@
         <v>34.68179361274331</v>
       </c>
       <c r="K34" t="n">
-        <v>319.7211289680228</v>
+        <v>69.94071572153581</v>
       </c>
       <c r="L34" t="n">
-        <v>373.1667351683443</v>
+        <v>94.40881630380184</v>
       </c>
       <c r="M34" t="n">
-        <v>100.0756788811711</v>
+        <v>269.5314065870665</v>
       </c>
       <c r="N34" t="n">
-        <v>98.98584833137259</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="O34" t="n">
         <v>458.0684527365065</v>
@@ -37326,7 +37326,7 @@
         <v>213.2596135765439</v>
       </c>
       <c r="Q35" t="n">
-        <v>152.241945632004</v>
+        <v>152.2419456320036</v>
       </c>
       <c r="R35" t="n">
         <v>74.53880739531414</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J36" t="n">
-        <v>67.56450449497436</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K36" t="n">
-        <v>249.1276081427552</v>
+        <v>128.3069431501773</v>
       </c>
       <c r="L36" t="n">
         <v>180.1279665374937</v>
@@ -37405,10 +37405,10 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q36" t="n">
-        <v>458.0684527365065</v>
+        <v>153.6211393463482</v>
       </c>
       <c r="R36" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.68179361274331</v>
+        <v>113.3905983079159</v>
       </c>
       <c r="K37" t="n">
-        <v>69.94071572153581</v>
+        <v>319.7211289680228</v>
       </c>
       <c r="L37" t="n">
-        <v>221.7871283092182</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="M37" t="n">
-        <v>458.0684527365065</v>
+        <v>252.3805147726926</v>
       </c>
       <c r="N37" t="n">
-        <v>458.0684527365065</v>
+        <v>98.98584833137259</v>
       </c>
       <c r="O37" t="n">
         <v>458.0684527365065</v>
@@ -37563,7 +37563,7 @@
         <v>213.2596135765439</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.2419456320036</v>
+        <v>152.241945632004</v>
       </c>
       <c r="R38" t="n">
         <v>74.53880739531414</v>
@@ -37621,10 +37621,10 @@
         <v>39.65493839873767</v>
       </c>
       <c r="J39" t="n">
-        <v>183.1740015343352</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3069431501773</v>
+        <v>185.5412267982677</v>
       </c>
       <c r="L39" t="n">
         <v>180.1279665374937</v>
@@ -37633,7 +37633,7 @@
         <v>213.3781045770984</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0684527365065</v>
+        <v>221.3906434312203</v>
       </c>
       <c r="O39" t="n">
         <v>198.881997960764</v>
@@ -37779,7 +37779,7 @@
         <v>32.69988138419187</v>
       </c>
       <c r="J41" t="n">
-        <v>118.6267716258145</v>
+        <v>118.6267716258142</v>
       </c>
       <c r="K41" t="n">
         <v>186.1190719851944</v>
@@ -37803,7 +37803,7 @@
         <v>152.2419456320036</v>
       </c>
       <c r="R41" t="n">
-        <v>74.53880739531414</v>
+        <v>74.53880739531455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J42" t="n">
-        <v>248.4452940666091</v>
+        <v>362.617527191531</v>
       </c>
       <c r="K42" t="n">
-        <v>128.3069431501773</v>
+        <v>185.5412267982677</v>
       </c>
       <c r="L42" t="n">
         <v>180.1279665374937</v>
@@ -37876,13 +37876,13 @@
         <v>198.881997960764</v>
       </c>
       <c r="P42" t="n">
-        <v>458.0684527365065</v>
+        <v>156.4469802773152</v>
       </c>
       <c r="Q42" t="n">
         <v>96.38685569825824</v>
       </c>
       <c r="R42" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>113.3905983079159</v>
+        <v>34.68179361274331</v>
       </c>
       <c r="K43" t="n">
-        <v>319.7211289680228</v>
+        <v>69.94071572153581</v>
       </c>
       <c r="L43" t="n">
+        <v>221.7871283092182</v>
+      </c>
+      <c r="M43" t="n">
         <v>458.0684527365065</v>
       </c>
-      <c r="M43" t="n">
-        <v>100.0756788811711</v>
-      </c>
       <c r="N43" t="n">
-        <v>98.98584833137259</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="O43" t="n">
-        <v>141.5554078692334</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="P43" t="n">
-        <v>388.1671901101868</v>
+        <v>72.25183195533063</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.8016894694349</v>
+        <v>40.8991668654965</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>268.8555522143665</v>
       </c>
       <c r="N44" t="n">
-        <v>273.9632331609005</v>
+        <v>273.9632331609001</v>
       </c>
       <c r="O44" t="n">
         <v>256.5068437520749</v>
@@ -38040,7 +38040,7 @@
         <v>152.2419456320036</v>
       </c>
       <c r="R44" t="n">
-        <v>74.53880739531414</v>
+        <v>74.53880739531455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.96069007104894</v>
+        <v>39.65493839873767</v>
       </c>
       <c r="J45" t="n">
         <v>362.617527191531</v>
@@ -38116,10 +38116,10 @@
         <v>156.4469802773152</v>
       </c>
       <c r="Q45" t="n">
-        <v>283.8360950325277</v>
+        <v>153.6211393463482</v>
       </c>
       <c r="R45" t="n">
-        <v>34.27304690888375</v>
+        <v>140.7937542673745</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>113.3905983079159</v>
+        <v>34.68179361274331</v>
       </c>
       <c r="K46" t="n">
-        <v>319.7211289680228</v>
+        <v>69.94071572153581</v>
       </c>
       <c r="L46" t="n">
-        <v>94.40881630380184</v>
+        <v>221.7871283092182</v>
       </c>
       <c r="M46" t="n">
-        <v>100.0756788811711</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="N46" t="n">
-        <v>146.1324398968042</v>
+        <v>458.0684527365065</v>
       </c>
       <c r="O46" t="n">
         <v>458.0684527365065</v>
       </c>
       <c r="P46" t="n">
-        <v>388.1671901101868</v>
+        <v>72.25183195533063</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.8016894694349</v>
+        <v>40.8991668654965</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
